--- a/doc/TimeLog.xlsx
+++ b/doc/TimeLog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="96" windowWidth="20736" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="195" yWindow="90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="EVM" sheetId="6" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="time log" sheetId="4" r:id="rId3"/>
     <sheet name="WBS_old" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="321">
   <si>
     <t xml:space="preserve">Stage </t>
   </si>
@@ -1025,10 +1025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resource Allocation View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1228,20 +1224,69 @@
   </si>
   <si>
     <t>update dynamic view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earned Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Han</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min,Jung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kwn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd&quot;/&quot;yy;@"/>
     <numFmt numFmtId="177" formatCode="yy&quot;-&quot;m&quot;-&quot;d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,7 +1495,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1667,67 +1712,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1750,6 +1744,63 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1783,12 +1834,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2050,32 +2113,54 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>324</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>328</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>328</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>334</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>334</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>388</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>418</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2412,14 +2497,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="125754368"/>
-        <c:axId val="125473152"/>
+        <c:smooth val="0"/>
+        <c:axId val="184045568"/>
+        <c:axId val="184047104"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -2600,7 +2695,7 @@
             <c:numRef>
               <c:f>EVM!$G$3:$G$52</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2618,154 +2713,194 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>58.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>64.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20</c:v>
+                  <c:v>117.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>152.88</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>164.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>164.64</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28</c:v>
+                  <c:v>164.64</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28</c:v>
+                  <c:v>164.64</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30</c:v>
+                  <c:v>176.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34</c:v>
+                  <c:v>199.92</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36</c:v>
+                  <c:v>211.68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>229.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>229.32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>229.32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>264.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>282.24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>423.36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>423.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="125476224"/>
-        <c:axId val="125474688"/>
+        <c:smooth val="0"/>
+        <c:axId val="184054528"/>
+        <c:axId val="184048640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125754368"/>
+        <c:axId val="184045568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;/&quot;dd" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125473152"/>
+        <c:crossAx val="184047104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125473152"/>
+        <c:axId val="184047104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="588"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125754368"/>
+        <c:crossAx val="184045568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125474688"/>
+        <c:axId val="184048640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="170"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125476224"/>
+        <c:crossAx val="184054528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="125476224"/>
+        <c:axId val="184054528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;/&quot;dd" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="125474688"/>
+        <c:crossAx val="184048640"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2775,9 +2910,11 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2791,13 +2928,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -2998,6 +3135,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3032,6 +3170,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3207,59 +3346,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="72" t="s">
-        <v>305</v>
-      </c>
-      <c r="B1" s="72" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="72"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="74"/>
       <c r="B2" s="69" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E2" s="69" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>300</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="61">
         <v>42131</v>
       </c>
@@ -3280,12 +3426,16 @@
         <f>C3</f>
         <v>12</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="73">
+        <f>$E$52*H3/100</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
         <f>D3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="61">
         <v>42132</v>
       </c>
@@ -3303,15 +3453,19 @@
         <v>12</v>
       </c>
       <c r="F4" s="28">
-        <f t="shared" ref="F4:F36" si="1">F3+C4</f>
+        <f t="shared" ref="F4:F43" si="1">F3+C4</f>
         <v>12</v>
       </c>
-      <c r="G4" s="28">
-        <f t="shared" ref="G4:G36" si="2">G3+D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="73">
+        <f t="shared" ref="G4:G43" si="2">$E$52*H4/100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <f t="shared" ref="H4:H43" si="3">H3+D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="61">
         <v>42133</v>
       </c>
@@ -3332,12 +3486,16 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="61">
         <v>42134</v>
       </c>
@@ -3358,12 +3516,16 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="61">
         <v>42135</v>
       </c>
@@ -3384,12 +3546,16 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="61">
         <v>42136</v>
       </c>
@@ -3410,12 +3576,16 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="73">
         <f t="shared" si="2"/>
+        <v>58.8</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="61">
         <v>42137</v>
       </c>
@@ -3436,12 +3606,16 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="73">
         <f t="shared" si="2"/>
+        <v>64.680000000000007</v>
+      </c>
+      <c r="H9" s="28">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="61">
         <v>42138</v>
       </c>
@@ -3462,12 +3636,16 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="61">
         <v>42139</v>
       </c>
@@ -3488,12 +3666,16 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H11" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="61">
         <v>42140</v>
       </c>
@@ -3514,12 +3696,16 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="61">
         <v>42141</v>
       </c>
@@ -3540,12 +3726,16 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="61">
         <v>42142</v>
       </c>
@@ -3566,12 +3756,16 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="61">
         <v>42143</v>
       </c>
@@ -3592,12 +3786,16 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="61">
         <v>42144</v>
       </c>
@@ -3618,12 +3816,16 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="61">
         <v>42145</v>
       </c>
@@ -3644,12 +3846,16 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="61">
         <v>42146</v>
       </c>
@@ -3670,12 +3876,16 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="61">
         <v>42147</v>
       </c>
@@ -3696,12 +3906,16 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="61">
         <v>42148</v>
       </c>
@@ -3722,12 +3936,16 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="61">
         <v>42149</v>
       </c>
@@ -3748,12 +3966,16 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="61">
         <v>42150</v>
       </c>
@@ -3774,12 +3996,16 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H22" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="61">
         <v>42151</v>
       </c>
@@ -3800,12 +4026,16 @@
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="73">
         <f t="shared" si="2"/>
+        <v>82.32</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="61">
         <v>42152</v>
       </c>
@@ -3826,12 +4056,16 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="73">
         <f t="shared" si="2"/>
+        <v>99.96</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="61">
         <v>42153</v>
       </c>
@@ -3852,12 +4086,16 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="73">
         <f t="shared" si="2"/>
+        <v>99.96</v>
+      </c>
+      <c r="H25" s="28">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="61">
         <v>42154</v>
       </c>
@@ -3878,12 +4116,16 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="73">
         <f t="shared" si="2"/>
+        <v>99.96</v>
+      </c>
+      <c r="H26" s="28">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="61">
         <v>42155</v>
       </c>
@@ -3904,12 +4146,16 @@
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="73">
         <f t="shared" si="2"/>
+        <v>99.96</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="61">
         <v>42156</v>
       </c>
@@ -3930,12 +4176,16 @@
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="73">
         <f t="shared" si="2"/>
+        <v>117.6</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="61">
         <v>42157</v>
       </c>
@@ -3943,7 +4193,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="28">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D29" s="28">
         <v>6</v>
@@ -3954,14 +4204,18 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="G29" s="28">
+        <v>312</v>
+      </c>
+      <c r="G29" s="73">
         <f t="shared" si="2"/>
+        <v>152.88</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="61">
         <v>42158</v>
       </c>
@@ -3980,14 +4234,18 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="1"/>
-        <v>328</v>
-      </c>
-      <c r="G30" s="28">
+        <v>316</v>
+      </c>
+      <c r="G30" s="73">
         <f t="shared" si="2"/>
+        <v>164.64</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="61">
         <v>42159</v>
       </c>
@@ -4006,14 +4264,18 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="1"/>
-        <v>328</v>
-      </c>
-      <c r="G31" s="28">
+        <v>316</v>
+      </c>
+      <c r="G31" s="73">
         <f t="shared" si="2"/>
+        <v>164.64</v>
+      </c>
+      <c r="H31" s="28">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="61">
         <v>42160</v>
       </c>
@@ -4032,14 +4294,18 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="1"/>
-        <v>334</v>
-      </c>
-      <c r="G32" s="28">
+        <v>322</v>
+      </c>
+      <c r="G32" s="73">
         <f t="shared" si="2"/>
+        <v>164.64</v>
+      </c>
+      <c r="H32" s="28">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="61">
         <v>42161</v>
       </c>
@@ -4058,14 +4324,18 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="1"/>
-        <v>334</v>
-      </c>
-      <c r="G33" s="28">
+        <v>322</v>
+      </c>
+      <c r="G33" s="73">
         <f t="shared" si="2"/>
+        <v>164.64</v>
+      </c>
+      <c r="H33" s="28">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="61">
         <v>42162</v>
       </c>
@@ -4084,14 +4354,18 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="1"/>
-        <v>388</v>
-      </c>
-      <c r="G34" s="28">
+        <v>376</v>
+      </c>
+      <c r="G34" s="73">
         <f t="shared" si="2"/>
+        <v>176.4</v>
+      </c>
+      <c r="H34" s="28">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="61">
         <v>42163</v>
       </c>
@@ -4110,14 +4384,18 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="1"/>
-        <v>418</v>
-      </c>
-      <c r="G35" s="28">
+        <v>406</v>
+      </c>
+      <c r="G35" s="73">
         <f t="shared" si="2"/>
+        <v>199.92</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="61">
         <v>42164</v>
       </c>
@@ -4125,7 +4403,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="28">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D36" s="28">
         <v>2</v>
@@ -4138,124 +4416,226 @@
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="73">
         <f t="shared" si="2"/>
+        <v>211.68</v>
+      </c>
+      <c r="H36" s="28">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="61">
         <v>42165</v>
       </c>
       <c r="B37" s="28">
         <v>24</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="28">
+        <v>11</v>
+      </c>
+      <c r="D37" s="28">
+        <v>3</v>
+      </c>
       <c r="E37" s="28">
-        <f t="shared" ref="E37:E52" si="3">E36+B37</f>
+        <f t="shared" ref="E37:E52" si="4">E36+B37</f>
         <v>324</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="F37" s="28">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="G37" s="73">
+        <f t="shared" si="2"/>
+        <v>229.32</v>
+      </c>
+      <c r="H37" s="28">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="61">
         <v>42166</v>
       </c>
       <c r="B38" s="28">
         <v>24</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="28">
+        <v>0</v>
+      </c>
+      <c r="D38" s="28">
+        <v>0</v>
+      </c>
       <c r="E38" s="28">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+      <c r="F38" s="28">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="G38" s="73">
+        <f t="shared" si="2"/>
+        <v>229.32</v>
+      </c>
+      <c r="H38" s="28">
         <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-    </row>
-    <row r="39" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="61">
         <v>42167</v>
       </c>
       <c r="B39" s="28">
         <v>24</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="28">
+        <v>0</v>
+      </c>
+      <c r="D39" s="28">
+        <v>0</v>
+      </c>
       <c r="E39" s="28">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="F39" s="28">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="G39" s="73">
+        <f t="shared" si="2"/>
+        <v>229.32</v>
+      </c>
+      <c r="H39" s="28">
         <f t="shared" si="3"/>
-        <v>372</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-    </row>
-    <row r="40" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="61">
         <v>42168</v>
       </c>
       <c r="B40" s="28">
         <v>0</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="28">
+        <v>54</v>
+      </c>
+      <c r="D40" s="28">
+        <v>6</v>
+      </c>
       <c r="E40" s="28">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="F40" s="28">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="G40" s="73">
+        <f t="shared" si="2"/>
+        <v>264.60000000000002</v>
+      </c>
+      <c r="H40" s="28">
         <f t="shared" si="3"/>
-        <v>372</v>
-      </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-    </row>
-    <row r="41" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="61">
         <v>42169</v>
       </c>
       <c r="B41" s="28">
         <v>0</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="28">
+        <v>54</v>
+      </c>
+      <c r="D41" s="28">
+        <v>3</v>
+      </c>
       <c r="E41" s="28">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="F41" s="28">
+        <f t="shared" si="1"/>
+        <v>549</v>
+      </c>
+      <c r="G41" s="73">
+        <f t="shared" si="2"/>
+        <v>282.24</v>
+      </c>
+      <c r="H41" s="28">
         <f t="shared" si="3"/>
-        <v>372</v>
-      </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-    </row>
-    <row r="42" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="61">
         <v>42170</v>
       </c>
       <c r="B42" s="28">
         <v>24</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="C42" s="28">
+        <v>42</v>
+      </c>
+      <c r="D42" s="28">
+        <v>24</v>
+      </c>
       <c r="E42" s="28">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+      <c r="F42" s="28">
+        <f t="shared" si="1"/>
+        <v>591</v>
+      </c>
+      <c r="G42" s="73">
+        <f t="shared" si="2"/>
+        <v>423.36</v>
+      </c>
+      <c r="H42" s="28">
         <f t="shared" si="3"/>
-        <v>396</v>
-      </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-    </row>
-    <row r="43" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="61">
         <v>42171</v>
       </c>
       <c r="B43" s="28">
         <v>24</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="28">
+        <v>18</v>
+      </c>
+      <c r="D43" s="28">
+        <v>0</v>
+      </c>
       <c r="E43" s="28">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="F43" s="28">
+        <f t="shared" si="1"/>
+        <v>609</v>
+      </c>
+      <c r="G43" s="73">
+        <f t="shared" si="2"/>
+        <v>423.36</v>
+      </c>
+      <c r="H43" s="28">
         <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-    </row>
-    <row r="44" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="61">
         <v>42172</v>
       </c>
@@ -4265,13 +4645,14 @@
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>444</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="61">
         <v>42173</v>
       </c>
@@ -4281,13 +4662,14 @@
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>468</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="28"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="61">
         <v>42174</v>
       </c>
@@ -4297,13 +4679,14 @@
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>492</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="28"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="61">
         <v>42175</v>
       </c>
@@ -4313,13 +4696,14 @@
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>492</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="61">
         <v>42176</v>
       </c>
@@ -4329,13 +4713,14 @@
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>492</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="61">
         <v>42177</v>
       </c>
@@ -4345,13 +4730,14 @@
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="28"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="61">
         <v>42178</v>
       </c>
@@ -4361,13 +4747,14 @@
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="28"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="61">
         <v>42179</v>
       </c>
@@ -4377,13 +4764,14 @@
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>564</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="28"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="61">
         <v>42180</v>
       </c>
@@ -4393,16 +4781,17 @@
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>588</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4413,66 +4802,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" customWidth="1"/>
-    <col min="3" max="3" width="40.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.799999999999997">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="28">
         <v>1</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" s="61">
         <v>42136</v>
@@ -4481,18 +4870,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="64"/>
       <c r="B3" s="64"/>
       <c r="C3" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="28">
         <v>1</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G3" s="61">
         <v>42131</v>
@@ -4501,18 +4890,18 @@
         <v>42137</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="28">
         <v>1</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G4" s="61">
         <v>42136</v>
@@ -4521,18 +4910,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="64"/>
       <c r="B5" s="64"/>
       <c r="C5" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="28">
         <v>1</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G5" s="61">
         <v>42136</v>
@@ -4541,18 +4930,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="64"/>
       <c r="B6" s="63"/>
       <c r="C6" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="28">
         <v>1</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" s="61">
         <v>42136</v>
@@ -4561,22 +4950,22 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="64"/>
       <c r="B7" s="65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="28">
         <v>1</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G7" s="61">
         <v>42136</v>
@@ -4585,18 +4974,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="63"/>
       <c r="D8" s="62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" s="28">
         <v>2</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G8" s="61">
         <v>42136</v>
@@ -4605,18 +4994,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="28">
         <v>1</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G9" s="61">
         <v>42136</v>
@@ -4625,18 +5014,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
       <c r="C10" s="62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="28">
         <v>1</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G10" s="61">
         <v>42136</v>
@@ -4645,18 +5034,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="64"/>
       <c r="B11" s="64"/>
       <c r="C11" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="28">
         <v>3</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G11" s="61">
         <v>42136</v>
@@ -4665,18 +5054,18 @@
         <v>42138</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
       <c r="B12" s="64"/>
       <c r="C12" s="62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="28">
         <v>1</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12" s="61">
         <v>42136</v>
@@ -4685,18 +5074,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="28">
         <v>2</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G13" s="61">
         <v>42148</v>
@@ -4705,14 +5094,14 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
@@ -4727,18 +5116,18 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
       <c r="D15" s="62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G15" s="61">
         <v>42157</v>
@@ -4747,18 +5136,18 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
       <c r="D16" s="62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="28">
         <v>1</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G16" s="61">
         <v>42157</v>
@@ -4767,22 +5156,22 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="64"/>
       <c r="B17" s="65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17" s="28">
         <v>3</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" s="61">
         <v>42149</v>
@@ -4791,18 +5180,18 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="67"/>
       <c r="D18" s="62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18" s="61">
         <v>42158</v>
@@ -4811,18 +5200,18 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
       <c r="C19" s="63"/>
       <c r="D19" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E19" s="28">
         <v>3</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G19" s="61">
         <v>42153</v>
@@ -4831,20 +5220,20 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E20" s="28">
         <v>3</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G20" s="61">
         <v>42160</v>
@@ -4853,18 +5242,18 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
       <c r="D21" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="28">
         <v>3</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G21" s="61">
         <v>42164</v>
@@ -4873,18 +5262,18 @@
         <v>42164</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="63"/>
       <c r="D22" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E22" s="28">
         <v>2</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G22" s="61">
         <v>42162</v>
@@ -4893,20 +5282,20 @@
         <v>42162</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E23" s="28">
         <v>2</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G23" s="61">
         <v>42164</v>
@@ -4915,21 +5304,27 @@
         <v>42164</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
       <c r="D24" s="62" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="F24" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="61">
+        <v>42165</v>
+      </c>
+      <c r="H24" s="61">
+        <v>42165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="B25" s="65" t="s">
         <v>258</v>
@@ -4953,7 +5348,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -4963,11 +5358,17 @@
       <c r="E26" s="28">
         <v>1</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="F26" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H26" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="63"/>
@@ -4977,11 +5378,17 @@
       <c r="E27" s="28">
         <v>1</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="F27" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H27" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="65" t="s">
@@ -4993,11 +5400,17 @@
       <c r="E28" s="28">
         <v>1</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="F28" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G28" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H28" s="61">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="63"/>
@@ -5007,11 +5420,17 @@
       <c r="E29" s="28">
         <v>0</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="F29" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H29" s="61">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
       <c r="B30" s="64"/>
       <c r="C30" s="65" t="s">
@@ -5023,11 +5442,15 @@
       <c r="E30" s="28">
         <v>1</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="61"/>
+      <c r="F30" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G30" s="61">
+        <v>42169</v>
+      </c>
       <c r="H30" s="61"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="B31" s="64"/>
       <c r="C31" s="63"/>
@@ -5037,11 +5460,15 @@
       <c r="E31" s="28">
         <v>0</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="61"/>
+      <c r="F31" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G31" s="61">
+        <v>42169</v>
+      </c>
       <c r="H31" s="61"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="65" t="s">
@@ -5053,11 +5480,17 @@
       <c r="E32" s="28">
         <v>0</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="F32" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="G32" s="61">
+        <v>42163</v>
+      </c>
+      <c r="H32" s="61">
+        <v>42163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
@@ -5067,11 +5500,17 @@
       <c r="E33" s="28">
         <v>1</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="F33" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" s="61">
+        <v>42163</v>
+      </c>
+      <c r="H33" s="61">
+        <v>42163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="64"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
@@ -5081,11 +5520,17 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="F34" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" s="61">
+        <v>42165</v>
+      </c>
+      <c r="H34" s="61">
+        <v>42165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="64"/>
       <c r="B35" s="64"/>
       <c r="C35" s="63"/>
@@ -5095,11 +5540,17 @@
       <c r="E35" s="28">
         <v>1</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="F35" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H35" s="61">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
       <c r="B36" s="64"/>
       <c r="C36" s="65" t="s">
@@ -5111,11 +5562,17 @@
       <c r="E36" s="28">
         <v>1</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="F36" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H36" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -5125,11 +5582,17 @@
       <c r="E37" s="28">
         <v>1</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="F37" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H37" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -5139,11 +5602,17 @@
       <c r="E38" s="28">
         <v>1</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="F38" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G38" s="61">
+        <v>42170</v>
+      </c>
+      <c r="H38" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
@@ -5153,11 +5622,17 @@
       <c r="E39" s="28">
         <v>1</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="F39" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" s="61">
+        <v>42170</v>
+      </c>
+      <c r="H39" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
       <c r="B40" s="64"/>
       <c r="C40" s="63"/>
@@ -5167,11 +5642,17 @@
       <c r="E40" s="28">
         <v>1</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="F40" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" s="61">
+        <v>42170</v>
+      </c>
+      <c r="H40" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
       <c r="B41" s="64"/>
       <c r="C41" s="65" t="s">
@@ -5183,11 +5664,17 @@
       <c r="E41" s="28">
         <v>1</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="F41" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G41" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H41" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="64"/>
       <c r="B42" s="64"/>
       <c r="C42" s="64"/>
@@ -5197,11 +5684,17 @@
       <c r="E42" s="28">
         <v>1</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="F42" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H42" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="64"/>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
@@ -5211,11 +5704,17 @@
       <c r="E43" s="28">
         <v>1</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="F43" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="61">
+        <v>42170</v>
+      </c>
+      <c r="H43" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="64"/>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
@@ -5225,11 +5724,17 @@
       <c r="E44" s="28">
         <v>1</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="F44" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" s="61">
+        <v>42170</v>
+      </c>
+      <c r="H44" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
       <c r="B45" s="64"/>
       <c r="C45" s="63"/>
@@ -5239,11 +5744,15 @@
       <c r="E45" s="28">
         <v>1</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" s="61">
+        <v>42171</v>
+      </c>
       <c r="H45" s="61"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
       <c r="C46" s="65" t="s">
@@ -5255,11 +5764,17 @@
       <c r="E46" s="28">
         <v>1</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="F46" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H46" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="64"/>
       <c r="B47" s="64"/>
       <c r="C47" s="64"/>
@@ -5269,11 +5784,17 @@
       <c r="E47" s="28">
         <v>1</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="F47" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H47" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
@@ -5283,11 +5804,15 @@
       <c r="E48" s="28">
         <v>1</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="61"/>
+      <c r="F48" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" s="61">
+        <v>42170</v>
+      </c>
       <c r="H48" s="61"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
@@ -5297,11 +5822,15 @@
       <c r="E49" s="28">
         <v>0</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="61"/>
+      <c r="F49" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G49" s="61">
+        <v>42170</v>
+      </c>
       <c r="H49" s="61"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="64"/>
       <c r="B50" s="64"/>
       <c r="C50" s="63"/>
@@ -5311,11 +5840,17 @@
       <c r="E50" s="28">
         <v>1</v>
       </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="F50" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" s="61">
+        <v>42170</v>
+      </c>
+      <c r="H50" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="64"/>
       <c r="B51" s="64"/>
       <c r="C51" s="65" t="s">
@@ -5327,11 +5862,17 @@
       <c r="E51" s="28">
         <v>1</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="F51" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G51" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H51" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -5341,11 +5882,17 @@
       <c r="E52" s="28">
         <v>1</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="F52" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G52" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H52" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="64"/>
       <c r="B53" s="64"/>
       <c r="C53" s="64"/>
@@ -5355,11 +5902,17 @@
       <c r="E53" s="28">
         <v>1</v>
       </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="F53" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="G53" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H53" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="64"/>
       <c r="B54" s="64"/>
       <c r="C54" s="64"/>
@@ -5369,11 +5922,15 @@
       <c r="E54" s="28">
         <v>1</v>
       </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="61"/>
+      <c r="F54" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G54" s="61">
+        <v>42171</v>
+      </c>
       <c r="H54" s="61"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="64"/>
       <c r="B55" s="64"/>
       <c r="C55" s="64"/>
@@ -5383,11 +5940,15 @@
       <c r="E55" s="28">
         <v>0</v>
       </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="61"/>
+      <c r="F55" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" s="61">
+        <v>42171</v>
+      </c>
       <c r="H55" s="61"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="64"/>
       <c r="B56" s="64"/>
       <c r="C56" s="63"/>
@@ -5397,11 +5958,17 @@
       <c r="E56" s="28">
         <v>1</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="F56" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G56" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H56" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="64"/>
       <c r="B57" s="64"/>
       <c r="C57" s="65" t="s">
@@ -5413,11 +5980,17 @@
       <c r="E57" s="28">
         <v>1</v>
       </c>
-      <c r="F57" s="28"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="F57" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H57" s="61">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="64"/>
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
@@ -5427,11 +6000,17 @@
       <c r="E58" s="28">
         <v>1</v>
       </c>
-      <c r="F58" s="28"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="F58" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="G58" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H58" s="61">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="64"/>
       <c r="B59" s="64"/>
       <c r="C59" s="63"/>
@@ -5441,11 +6020,17 @@
       <c r="E59" s="28">
         <v>1</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="F59" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="G59" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H59" s="61">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="64"/>
       <c r="B60" s="64"/>
       <c r="C60" s="65" t="s">
@@ -5457,11 +6042,17 @@
       <c r="E60" s="28">
         <v>1</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="F60" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G60" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H60" s="61">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="64"/>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
@@ -5471,11 +6062,17 @@
       <c r="E61" s="28">
         <v>0</v>
       </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="F61" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G61" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H61" s="61">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="64"/>
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
@@ -5485,11 +6082,17 @@
       <c r="E62" s="28">
         <v>0</v>
       </c>
-      <c r="F62" s="28"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="F62" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G62" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H62" s="61">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="64"/>
       <c r="B63" s="64"/>
       <c r="C63" s="63"/>
@@ -5499,11 +6102,17 @@
       <c r="E63" s="28">
         <v>1</v>
       </c>
-      <c r="F63" s="28"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="F63" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H63" s="61">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="64"/>
       <c r="B64" s="64"/>
       <c r="C64" s="65" t="s">
@@ -5515,11 +6124,17 @@
       <c r="E64" s="28">
         <v>1</v>
       </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="F64" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H64" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="64"/>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
@@ -5529,11 +6144,17 @@
       <c r="E65" s="28">
         <v>1</v>
       </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="F65" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G65" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H65" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="64"/>
       <c r="B66" s="64"/>
       <c r="C66" s="64"/>
@@ -5543,11 +6164,17 @@
       <c r="E66" s="28">
         <v>1</v>
       </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="F66" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="G66" s="61">
+        <v>42165</v>
+      </c>
+      <c r="H66" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="64"/>
       <c r="B67" s="64"/>
       <c r="C67" s="64"/>
@@ -5557,11 +6184,15 @@
       <c r="E67" s="28">
         <v>1</v>
       </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="61"/>
+      <c r="F67" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G67" s="61">
+        <v>42168</v>
+      </c>
       <c r="H67" s="61"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="64"/>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
@@ -5571,11 +6202,17 @@
       <c r="E68" s="28">
         <v>1</v>
       </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="F68" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G68" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H68" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="64"/>
       <c r="B69" s="64"/>
       <c r="C69" s="64"/>
@@ -5585,11 +6222,15 @@
       <c r="E69" s="28">
         <v>0</v>
       </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="61"/>
+      <c r="F69" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G69" s="61">
+        <v>42168</v>
+      </c>
       <c r="H69" s="61"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="64"/>
       <c r="B70" s="64"/>
       <c r="C70" s="63"/>
@@ -5599,11 +6240,17 @@
       <c r="E70" s="28">
         <v>1</v>
       </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="F70" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="61">
+        <v>42170</v>
+      </c>
+      <c r="H70" s="61">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="64"/>
       <c r="B71" s="64"/>
       <c r="C71" s="65" t="s">
@@ -5615,11 +6262,13 @@
       <c r="E71" s="28">
         <v>1</v>
       </c>
-      <c r="F71" s="28"/>
+      <c r="F71" s="28" t="s">
+        <v>314</v>
+      </c>
       <c r="G71" s="61"/>
       <c r="H71" s="61"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="64"/>
       <c r="B72" s="64"/>
       <c r="C72" s="64" t="s">
@@ -5631,11 +6280,13 @@
       <c r="E72" s="28">
         <v>0</v>
       </c>
-      <c r="F72" s="28"/>
+      <c r="F72" s="28" t="s">
+        <v>314</v>
+      </c>
       <c r="G72" s="61"/>
       <c r="H72" s="61"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="64"/>
       <c r="B73" s="64"/>
       <c r="C73" s="64"/>
@@ -5645,11 +6296,13 @@
       <c r="E73" s="28">
         <v>0</v>
       </c>
-      <c r="F73" s="28"/>
+      <c r="F73" s="28" t="s">
+        <v>314</v>
+      </c>
       <c r="G73" s="61"/>
       <c r="H73" s="61"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="64"/>
       <c r="B74" s="64"/>
       <c r="C74" s="63"/>
@@ -5659,11 +6312,13 @@
       <c r="E74" s="28">
         <v>1</v>
       </c>
-      <c r="F74" s="28"/>
+      <c r="F74" s="28" t="s">
+        <v>314</v>
+      </c>
       <c r="G74" s="61"/>
       <c r="H74" s="61"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="64"/>
       <c r="B75" s="64"/>
       <c r="C75" s="65" t="s">
@@ -5675,11 +6330,17 @@
       <c r="E75" s="28">
         <v>1</v>
       </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="F75" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G75" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H75" s="61">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="64"/>
       <c r="B76" s="64"/>
       <c r="C76" s="64"/>
@@ -5689,11 +6350,17 @@
       <c r="E76" s="28">
         <v>0</v>
       </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="F76" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G76" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H76" s="61">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="64"/>
       <c r="B77" s="64"/>
       <c r="C77" s="64"/>
@@ -5703,11 +6370,17 @@
       <c r="E77" s="28">
         <v>0</v>
       </c>
-      <c r="F77" s="28"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="F77" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G77" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H77" s="61">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="64"/>
       <c r="B78" s="63"/>
       <c r="C78" s="63"/>
@@ -5717,11 +6390,17 @@
       <c r="E78" s="28">
         <v>1</v>
       </c>
-      <c r="F78" s="28"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="F78" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G78" s="61">
+        <v>42168</v>
+      </c>
+      <c r="H78" s="61">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="63"/>
       <c r="B79" s="28" t="s">
         <v>204</v>
@@ -5741,82 +6420,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Y134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y71" sqref="S71:Y124"/>
+    <sheetView topLeftCell="C23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.5" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.09765625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.125" style="36" customWidth="1"/>
     <col min="18" max="18" width="80.5" customWidth="1"/>
-    <col min="19" max="25" width="2.59765625" customWidth="1"/>
+    <col min="19" max="24" width="2.625" customWidth="1"/>
+    <col min="25" max="25" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25">
+    <row r="1" spans="3:25" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="3:25">
-      <c r="C3" s="91" t="s">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C3" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="89" t="s">
+      <c r="G3" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="98" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="81" t="s">
         <v>118</v>
       </c>
       <c r="R3" s="17"/>
     </row>
-    <row r="4" spans="3:25">
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="43" t="s">
         <v>159</v>
       </c>
@@ -5838,7 +6518,7 @@
       <c r="P4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="99"/>
+      <c r="Q4" s="82"/>
       <c r="R4" s="17"/>
       <c r="S4" s="53" t="s">
         <v>150</v>
@@ -5862,7 +6542,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="3:25" ht="19.2" customHeight="1">
+    <row r="5" spans="3:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="15">
         <v>42131.75</v>
       </c>
@@ -5937,15 +6617,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:25">
-      <c r="C6" s="73">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C6" s="75">
         <v>42134</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="16" t="s">
         <v>42</v>
       </c>
@@ -6008,7 +6688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:25">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C7" s="15">
         <v>42134.75</v>
       </c>
@@ -6083,13 +6763,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:25">
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="16" t="s">
         <v>42</v>
       </c>
@@ -6152,17 +6832,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:25">
-      <c r="C9" s="83">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C9" s="87">
         <v>42136.75</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="87">
         <v>42136.916666666664</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="90" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -6227,11 +6907,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:25">
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="5" t="s">
         <v>53</v>
       </c>
@@ -6294,11 +6974,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:25">
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="5" t="s">
         <v>54</v>
       </c>
@@ -6361,11 +7041,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:25">
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
@@ -6428,11 +7108,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:25">
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="5" t="s">
         <v>54</v>
       </c>
@@ -6495,11 +7175,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:25">
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="5" t="s">
         <v>54</v>
       </c>
@@ -6562,11 +7242,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:25">
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="5" t="s">
         <v>54</v>
       </c>
@@ -6629,11 +7309,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:25">
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="5" t="s">
         <v>54</v>
       </c>
@@ -6696,15 +7376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:25">
-      <c r="C17" s="73" t="s">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C17" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="16" t="s">
         <v>42</v>
       </c>
@@ -6767,7 +7447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:25">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C18" s="15">
         <v>42137.75</v>
       </c>
@@ -6844,13 +7524,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:25">
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="16" t="s">
         <v>42</v>
       </c>
@@ -6913,17 +7593,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:25">
-      <c r="C20" s="83">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C20" s="87">
         <v>42138.75</v>
       </c>
-      <c r="D20" s="83">
+      <c r="D20" s="87">
         <v>42138.833333333336</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="90" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -6988,11 +7668,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:25">
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="10" t="s">
         <v>54</v>
       </c>
@@ -7055,11 +7735,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:25">
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="10" t="s">
         <v>54</v>
       </c>
@@ -7122,11 +7802,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:25">
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="5" t="s">
         <v>54</v>
       </c>
@@ -7189,13 +7869,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:25">
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="16" t="s">
         <v>42</v>
       </c>
@@ -7258,7 +7938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="3:25">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C25" s="15">
         <v>42142.75</v>
       </c>
@@ -7335,13 +8015,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:25">
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
       <c r="I26" s="16" t="s">
         <v>42</v>
       </c>
@@ -7404,17 +8084,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:25">
-      <c r="C27" s="83">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C27" s="87">
         <v>42144.708333333336</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="87">
         <v>42144.791666666664</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="F27" s="90" t="s">
         <v>94</v>
       </c>
       <c r="G27" s="21" t="s">
@@ -7448,7 +8128,7 @@
         <f t="shared" ref="P27:P30" si="19">SUM(J27:O27)</f>
         <v>3</v>
       </c>
-      <c r="Q27" s="93" t="s">
+      <c r="Q27" s="76" t="s">
         <v>121</v>
       </c>
       <c r="R27" s="17"/>
@@ -7481,11 +8161,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:25">
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="21" t="s">
         <v>54</v>
       </c>
@@ -7517,7 +8197,7 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="Q28" s="94"/>
+      <c r="Q28" s="77"/>
       <c r="R28" s="17"/>
       <c r="S28" s="28">
         <f t="shared" si="6"/>
@@ -7548,11 +8228,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:25">
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
       <c r="G29" s="10" t="s">
         <v>54</v>
       </c>
@@ -7584,7 +8264,7 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="Q29" s="94"/>
+      <c r="Q29" s="77"/>
       <c r="R29" s="17"/>
       <c r="S29" s="28">
         <f t="shared" si="6"/>
@@ -7615,11 +8295,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:25">
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="21" t="s">
         <v>54</v>
       </c>
@@ -7651,7 +8331,7 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="Q30" s="95"/>
+      <c r="Q30" s="78"/>
       <c r="R30" s="17"/>
       <c r="S30" s="28">
         <f t="shared" si="6"/>
@@ -7682,13 +8362,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:25">
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="16" t="s">
         <v>42</v>
       </c>
@@ -7751,7 +8431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="3:25">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C32" s="24">
         <v>42148.854166666664</v>
       </c>
@@ -7826,13 +8506,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:25">
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="16" t="s">
         <v>42</v>
       </c>
@@ -7895,17 +8575,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="3:25">
+    <row r="34" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C34" s="24">
         <v>42149.604166666664</v>
       </c>
       <c r="D34" s="24">
         <v>42149.729166666664</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="90" t="s">
         <v>115</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -7972,15 +8652,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:25">
+    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C35" s="24">
         <v>42149.833333333336</v>
       </c>
       <c r="D35" s="24">
         <v>42149.958333333336</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
       <c r="G35" s="12" t="s">
         <v>108</v>
       </c>
@@ -8012,7 +8692,7 @@
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="Q35" s="96" t="s">
+      <c r="Q35" s="79" t="s">
         <v>119</v>
       </c>
       <c r="R35" s="17"/>
@@ -8045,15 +8725,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:25">
+    <row r="36" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C36" s="25">
         <v>42149.958333333336</v>
       </c>
       <c r="D36" s="25">
         <v>42149.5</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="12" t="s">
         <v>108</v>
       </c>
@@ -8085,7 +8765,7 @@
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="Q36" s="97"/>
+      <c r="Q36" s="80"/>
       <c r="R36" s="17"/>
       <c r="S36" s="28">
         <f t="shared" si="6"/>
@@ -8116,18 +8796,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:25">
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J37" s="38">
-        <f t="shared" ref="J37:O37" si="23">SUM(J34:J36)</f>
+        <f t="shared" ref="J37:P37" si="23">SUM(J34:J36)</f>
         <v>7</v>
       </c>
       <c r="K37" s="38">
@@ -8151,8 +8831,8 @@
         <v>7</v>
       </c>
       <c r="P37" s="38">
-        <f t="shared" ref="P37" si="24">SUM(P34:P35)</f>
-        <v>36</v>
+        <f t="shared" si="23"/>
+        <v>42</v>
       </c>
       <c r="Q37" s="33"/>
       <c r="R37" s="17"/>
@@ -8182,10 +8862,10 @@
       </c>
       <c r="Y37" s="28">
         <f t="shared" si="12"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="3:25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C38" s="27">
         <v>42151.625</v>
       </c>
@@ -8216,19 +8896,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="L38" s="37">
-        <f t="shared" ref="L38:O38" si="25">K38</f>
+        <f t="shared" ref="L38:O38" si="24">K38</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="M38" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="N38" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O38" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P38" s="37">
@@ -8266,42 +8946,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:25">
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="38">
-        <f t="shared" ref="J39:O39" si="26">SUM(J38)</f>
+        <f t="shared" ref="J39:O39" si="25">SUM(J38)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K39" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L39" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="M39" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="N39" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O39" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P39" s="38">
-        <f t="shared" ref="P39" si="27">SUM(J39:O39)</f>
+        <f t="shared" ref="P39" si="26">SUM(J39:O39)</f>
         <v>3.9999999999999996</v>
       </c>
       <c r="Q39" s="33"/>
@@ -8335,7 +9015,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="3:25">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C40" s="31">
         <v>42152.833333333336</v>
       </c>
@@ -8364,23 +9044,23 @@
         <v>3</v>
       </c>
       <c r="L40" s="37">
-        <f t="shared" ref="L40" si="28">K40</f>
+        <f t="shared" ref="L40" si="27">K40</f>
         <v>3</v>
       </c>
       <c r="M40" s="37">
-        <f t="shared" ref="M40" si="29">L40</f>
+        <f t="shared" ref="M40" si="28">L40</f>
         <v>3</v>
       </c>
       <c r="N40" s="37">
-        <f t="shared" ref="N40" si="30">M40</f>
+        <f t="shared" ref="N40" si="29">M40</f>
         <v>3</v>
       </c>
       <c r="O40" s="37">
-        <f t="shared" ref="O40" si="31">N40</f>
+        <f t="shared" ref="O40" si="30">N40</f>
         <v>3</v>
       </c>
       <c r="P40" s="37">
-        <f t="shared" ref="P40" si="32">SUM(J40:O40)</f>
+        <f t="shared" ref="P40" si="31">SUM(J40:O40)</f>
         <v>18</v>
       </c>
       <c r="Q40" s="32"/>
@@ -8414,42 +9094,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:25">
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
       <c r="I41" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J41" s="38">
-        <f t="shared" ref="J41:O41" si="33">SUM(J40)</f>
+        <f t="shared" ref="J41:O41" si="32">SUM(J40)</f>
         <v>3</v>
       </c>
       <c r="K41" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="L41" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="M41" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="N41" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="O41" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="P41" s="38">
-        <f t="shared" ref="P41" si="34">SUM(J41:O41)</f>
+        <f t="shared" ref="P41" si="33">SUM(J41:O41)</f>
         <v>18</v>
       </c>
       <c r="Q41" s="33"/>
@@ -8483,7 +9163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="3:25">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C42" s="41">
         <v>42152.583333333336</v>
       </c>
@@ -8560,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:25">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C43" s="41">
         <v>42152.833333333336</v>
       </c>
@@ -8637,13 +9317,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:25">
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
+    <row r="44" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="16" t="s">
         <v>42</v>
       </c>
@@ -8652,27 +9332,27 @@
         <v>11</v>
       </c>
       <c r="K44" s="38">
-        <f t="shared" ref="K44:O44" si="35">SUM(K42:K43)</f>
+        <f t="shared" ref="K44:O44" si="34">SUM(K42:K43)</f>
         <v>11</v>
       </c>
       <c r="L44" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="M44" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="N44" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="O44" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="P44" s="38">
-        <f t="shared" ref="P44" si="36">SUM(J44:O44)</f>
+        <f t="shared" ref="P44" si="35">SUM(J44:O44)</f>
         <v>66</v>
       </c>
       <c r="Q44" s="33"/>
@@ -8706,7 +9386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="3:25" ht="31.2">
+    <row r="45" spans="3:25" ht="27" x14ac:dyDescent="0.3">
       <c r="C45" s="41">
         <v>42155.375</v>
       </c>
@@ -8747,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="37">
-        <f t="shared" ref="P45:P48" si="37">SUM(J45:O45)</f>
+        <f t="shared" ref="P45:P48" si="36">SUM(J45:O45)</f>
         <v>16</v>
       </c>
       <c r="Q45" s="54" t="s">
@@ -8783,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:25">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C46" s="41">
         <v>42155.375</v>
       </c>
@@ -8824,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="Q46" s="32" t="s">
@@ -8860,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:25" ht="31.2">
+    <row r="47" spans="3:25" ht="27" x14ac:dyDescent="0.3">
       <c r="C47" s="41">
         <v>42155.375</v>
       </c>
@@ -8901,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="Q47" s="54" t="s">
@@ -8937,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:25">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C48" s="41">
         <v>42155.375</v>
       </c>
@@ -8978,7 +9658,7 @@
         <v>8</v>
       </c>
       <c r="P48" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="Q48" s="32" t="s">
@@ -9014,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:25">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C49" s="41">
         <v>42155.708333333336</v>
       </c>
@@ -9055,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="P49" s="37">
-        <f t="shared" ref="P49" si="38">SUM(J49:O49)</f>
+        <f t="shared" ref="P49" si="37">SUM(J49:O49)</f>
         <v>6</v>
       </c>
       <c r="Q49" s="32" t="s">
@@ -9091,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:25">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C50" s="44">
         <v>42155.8125</v>
       </c>
@@ -9132,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="37">
-        <f t="shared" ref="P50" si="39">SUM(J50:O50)</f>
+        <f t="shared" ref="P50" si="38">SUM(J50:O50)</f>
         <v>6</v>
       </c>
       <c r="Q50" s="32" t="s">
@@ -9168,11 +9848,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:25" s="52" customFormat="1">
-      <c r="C51" s="77">
+    <row r="51" spans="3:25" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="96">
         <v>42155.854166666664</v>
       </c>
-      <c r="D51" s="77">
+      <c r="D51" s="96">
         <v>42155.9375</v>
       </c>
       <c r="E51" s="45" t="s">
@@ -9181,10 +9861,10 @@
       <c r="F51" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G51" s="80" t="s">
+      <c r="G51" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="H51" s="80" t="s">
+      <c r="H51" s="99" t="s">
         <v>135</v>
       </c>
       <c r="I51" s="48" t="s">
@@ -9209,7 +9889,7 @@
         <v>0.5</v>
       </c>
       <c r="P51" s="49">
-        <f t="shared" ref="P51:P54" si="40">SUM(J51:O51)</f>
+        <f t="shared" ref="P51:P54" si="39">SUM(J51:O51)</f>
         <v>3</v>
       </c>
       <c r="Q51" s="50"/>
@@ -9243,17 +9923,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:25" s="52" customFormat="1">
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
+    <row r="52" spans="3:25" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
       <c r="E52" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F52" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
       <c r="I52" s="48" t="s">
         <v>167</v>
       </c>
@@ -9276,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="P52" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>5.5</v>
       </c>
       <c r="Q52" s="50"/>
@@ -9310,17 +9990,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:25" s="52" customFormat="1">
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
+    <row r="53" spans="3:25" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
       <c r="E53" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F53" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
       <c r="I53" s="48" t="s">
         <v>168</v>
       </c>
@@ -9343,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>5.5</v>
       </c>
       <c r="Q53" s="50"/>
@@ -9377,17 +10057,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:25" s="52" customFormat="1">
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
+    <row r="54" spans="3:25" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
       <c r="E54" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F54" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
       <c r="I54" s="48" t="s">
         <v>169</v>
       </c>
@@ -9410,7 +10090,7 @@
         <v>0.5</v>
       </c>
       <c r="P54" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="Q54" s="50"/>
@@ -9444,42 +10124,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:25">
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
       <c r="I55" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J55" s="38">
-        <f t="shared" ref="J55:O55" si="41">SUM(J45:J54)</f>
+        <f t="shared" ref="J55:O55" si="40">SUM(J45:J54)</f>
         <v>12</v>
       </c>
       <c r="K55" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="L55" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="M55" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="N55" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="O55" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="P55" s="38">
-        <f t="shared" ref="P55" si="42">SUM(J55:O55)</f>
+        <f t="shared" ref="P55" si="41">SUM(J55:O55)</f>
         <v>77</v>
       </c>
       <c r="Q55" s="33"/>
@@ -9513,7 +10193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="3:25">
+    <row r="56" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C56" s="44">
         <v>42156.8125</v>
       </c>
@@ -9590,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:25">
+    <row r="57" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C57" s="44">
         <v>42156.854166666664</v>
       </c>
@@ -9667,13 +10347,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:25">
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
       <c r="I58" s="16" t="s">
         <v>42</v>
       </c>
@@ -9682,27 +10362,27 @@
         <v>3</v>
       </c>
       <c r="K58" s="38">
-        <f t="shared" ref="K58:O58" si="43">SUM(K56:K57)</f>
+        <f t="shared" ref="K58:O58" si="42">SUM(K56:K57)</f>
         <v>3</v>
       </c>
       <c r="L58" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="M58" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="N58" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="O58" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="P58" s="38">
-        <f t="shared" ref="P58:P62" si="44">SUM(J58:O58)</f>
+        <f t="shared" ref="P58:P62" si="43">SUM(J58:O58)</f>
         <v>18</v>
       </c>
       <c r="Q58" s="33"/>
@@ -9736,7 +10416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="3:25">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C59" s="47">
         <v>42157.8125</v>
       </c>
@@ -9813,42 +10493,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:25">
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
       <c r="I60" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J60" s="38">
-        <f t="shared" ref="J60:O60" si="45">SUM(J59)</f>
+        <f t="shared" ref="J60:O60" si="44">SUM(J59)</f>
         <v>1</v>
       </c>
       <c r="K60" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="L60" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="M60" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="N60" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="O60" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="P60" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
       <c r="Q60" s="33"/>
@@ -9882,7 +10562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="3:25">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C61" s="47">
         <v>42158.520833333336</v>
       </c>
@@ -9913,19 +10593,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="L61" s="37">
-        <f t="shared" ref="L61" si="46">K61</f>
+        <f t="shared" ref="L61" si="45">K61</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="M61" s="37">
-        <f t="shared" ref="M61" si="47">L61</f>
+        <f t="shared" ref="M61" si="46">L61</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="N61" s="37">
-        <f t="shared" ref="N61" si="48">M61</f>
+        <f t="shared" ref="N61" si="47">M61</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="O61" s="37">
-        <f t="shared" ref="O61" si="49">N61</f>
+        <f t="shared" ref="O61" si="48">N61</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="P61" s="37">
@@ -9963,42 +10643,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:25">
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
       <c r="I62" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J62" s="38">
-        <f t="shared" ref="J62:O62" si="50">SUM(J61)</f>
+        <f t="shared" ref="J62:O62" si="49">SUM(J61)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K62" s="38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L62" s="38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="M62" s="38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="N62" s="38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O62" s="38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P62" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>3.9999999999999996</v>
       </c>
       <c r="Q62" s="33"/>
@@ -10032,7 +10712,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="3:25">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C63" s="47">
         <v>42160.666666666664</v>
       </c>
@@ -10109,42 +10789,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:25">
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
       <c r="I64" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J64" s="38">
-        <f t="shared" ref="J64:O64" si="51">SUM(J63)</f>
+        <f t="shared" ref="J64:O64" si="50">SUM(J63)</f>
         <v>1</v>
       </c>
       <c r="K64" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="L64" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M64" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="N64" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="O64" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="P64" s="38">
-        <f t="shared" ref="P64" si="52">SUM(J64:O64)</f>
+        <f t="shared" ref="P64" si="51">SUM(J64:O64)</f>
         <v>6</v>
       </c>
       <c r="Q64" s="33"/>
@@ -10178,7 +10858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="3:25">
+    <row r="65" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C65" s="47">
         <v>42162.375</v>
       </c>
@@ -10253,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:25">
+    <row r="66" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C66" s="47">
         <v>42162.375</v>
       </c>
@@ -10328,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:25">
+    <row r="67" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C67" s="47">
         <v>42162.375</v>
       </c>
@@ -10403,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:25">
+    <row r="68" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C68" s="47">
         <v>42162.375</v>
       </c>
@@ -10478,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:25">
+    <row r="69" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C69" s="47">
         <v>42162.375</v>
       </c>
@@ -10553,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:25">
+    <row r="70" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C70" s="47">
         <v>42162.375</v>
       </c>
@@ -10600,41 +11280,41 @@
       <c r="Q70" s="32"/>
       <c r="R70" s="17"/>
       <c r="S70" s="28">
-        <f t="shared" ref="S70:S124" si="53">IF($I70="total",J70,0)</f>
+        <f t="shared" ref="S70:S71" si="52">IF($I70="total",J70,0)</f>
         <v>0</v>
       </c>
       <c r="T70" s="28">
-        <f t="shared" ref="T70:T124" si="54">IF($I70="total",K70,0)</f>
+        <f t="shared" ref="T70:T71" si="53">IF($I70="total",K70,0)</f>
         <v>0</v>
       </c>
       <c r="U70" s="28">
-        <f t="shared" ref="U70:U124" si="55">IF($I70="total",L70,0)</f>
+        <f t="shared" ref="U70:U71" si="54">IF($I70="total",L70,0)</f>
         <v>0</v>
       </c>
       <c r="V70" s="28">
-        <f t="shared" ref="V70:V124" si="56">IF($I70="total",M70,0)</f>
+        <f t="shared" ref="V70:V71" si="55">IF($I70="total",M70,0)</f>
         <v>0</v>
       </c>
       <c r="W70" s="28">
-        <f t="shared" ref="W70:W124" si="57">IF($I70="total",N70,0)</f>
+        <f t="shared" ref="W70:W71" si="56">IF($I70="total",N70,0)</f>
         <v>0</v>
       </c>
       <c r="X70" s="28">
-        <f t="shared" ref="X70:X124" si="58">IF($I70="total",O70,0)</f>
+        <f t="shared" ref="X70:X71" si="57">IF($I70="total",O70,0)</f>
         <v>0</v>
       </c>
       <c r="Y70" s="28">
-        <f t="shared" ref="Y70:Y124" si="59">IF($I70="total",P70,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="3:25">
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
+        <f t="shared" ref="Y70:Y71" si="58">IF($I70="total",P70,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
       <c r="I71" s="16" t="s">
         <v>42</v>
       </c>
@@ -10643,23 +11323,23 @@
         <v>9</v>
       </c>
       <c r="K71" s="38">
-        <f t="shared" ref="K71:O71" si="60">SUM(K65:K70)</f>
+        <f t="shared" ref="K71:O71" si="59">SUM(K65:K70)</f>
         <v>9</v>
       </c>
       <c r="L71" s="38">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="M71" s="38">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="N71" s="38">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="O71" s="38">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="P71" s="38">
@@ -10669,35 +11349,35 @@
       <c r="Q71" s="33"/>
       <c r="R71" s="17"/>
       <c r="S71" s="28">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="T71" s="28">
         <f t="shared" si="53"/>
         <v>9</v>
       </c>
-      <c r="T71" s="28">
+      <c r="U71" s="28">
         <f t="shared" si="54"/>
         <v>9</v>
       </c>
-      <c r="U71" s="28">
+      <c r="V71" s="28">
         <f t="shared" si="55"/>
         <v>9</v>
       </c>
-      <c r="V71" s="28">
+      <c r="W71" s="28">
         <f t="shared" si="56"/>
         <v>9</v>
       </c>
-      <c r="W71" s="28">
+      <c r="X71" s="28">
         <f t="shared" si="57"/>
         <v>9</v>
       </c>
-      <c r="X71" s="28">
+      <c r="Y71" s="28">
         <f t="shared" si="58"/>
-        <v>9</v>
-      </c>
-      <c r="Y71" s="28">
-        <f t="shared" si="59"/>
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="3:25" ht="31.2">
+    <row r="72" spans="3:25" ht="27" x14ac:dyDescent="0.3">
       <c r="C72" s="47">
         <v>42163.583333333336</v>
       </c>
@@ -10738,7 +11418,7 @@
         <v>2</v>
       </c>
       <c r="P72" s="37">
-        <f t="shared" ref="P72:P81" si="61">SUM(J72:O72)</f>
+        <f t="shared" ref="P72:P81" si="60">SUM(J72:O72)</f>
         <v>12</v>
       </c>
       <c r="Q72" s="57" t="s">
@@ -10746,35 +11426,35 @@
       </c>
       <c r="R72" s="17"/>
       <c r="S72" s="28">
-        <f t="shared" ref="S72:S124" si="62">IF($I72="total",J72,0)</f>
+        <f t="shared" ref="S72:S124" si="61">IF($I72="total",J72,0)</f>
         <v>0</v>
       </c>
       <c r="T72" s="28">
-        <f t="shared" ref="T72:T124" si="63">IF($I72="total",K72,0)</f>
+        <f t="shared" ref="T72:T124" si="62">IF($I72="total",K72,0)</f>
         <v>0</v>
       </c>
       <c r="U72" s="28">
-        <f t="shared" ref="U72:U124" si="64">IF($I72="total",L72,0)</f>
+        <f t="shared" ref="U72:U124" si="63">IF($I72="total",L72,0)</f>
         <v>0</v>
       </c>
       <c r="V72" s="28">
-        <f t="shared" ref="V72:V124" si="65">IF($I72="total",M72,0)</f>
+        <f t="shared" ref="V72:V124" si="64">IF($I72="total",M72,0)</f>
         <v>0</v>
       </c>
       <c r="W72" s="28">
-        <f t="shared" ref="W72:W124" si="66">IF($I72="total",N72,0)</f>
+        <f t="shared" ref="W72:W124" si="65">IF($I72="total",N72,0)</f>
         <v>0</v>
       </c>
       <c r="X72" s="28">
-        <f t="shared" ref="X72:X124" si="67">IF($I72="total",O72,0)</f>
+        <f t="shared" ref="X72:X124" si="66">IF($I72="total",O72,0)</f>
         <v>0</v>
       </c>
       <c r="Y72" s="28">
-        <f t="shared" ref="Y72:Y124" si="68">IF($I72="total",P72,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="3:25">
+        <f t="shared" ref="Y72:Y124" si="67">IF($I72="total",P72,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C73" s="47">
         <v>42163.666666666664</v>
       </c>
@@ -10815,47 +11495,47 @@
         <v>1</v>
       </c>
       <c r="P73" s="37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>6</v>
       </c>
       <c r="Q73" s="32"/>
       <c r="R73" s="17"/>
       <c r="S73" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T73" s="28">
+      <c r="U73" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U73" s="28">
+      <c r="V73" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V73" s="28">
+      <c r="W73" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W73" s="28">
+      <c r="X73" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X73" s="28">
+      <c r="Y73" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y73" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="3:25">
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
+    </row>
+    <row r="74" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
       <c r="I74" s="16" t="s">
         <v>42</v>
       </c>
@@ -10864,61 +11544,61 @@
         <v>3</v>
       </c>
       <c r="K74" s="38">
-        <f t="shared" ref="K74:O74" si="69">SUM(K72:K73)</f>
+        <f t="shared" ref="K74:O74" si="68">SUM(K72:K73)</f>
         <v>3</v>
       </c>
       <c r="L74" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>3</v>
       </c>
       <c r="M74" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>3</v>
       </c>
       <c r="N74" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>3</v>
       </c>
       <c r="O74" s="38">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>3</v>
       </c>
       <c r="P74" s="38">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>18</v>
       </c>
       <c r="Q74" s="33"/>
       <c r="R74" s="17"/>
       <c r="S74" s="28">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="T74" s="28">
         <f t="shared" si="62"/>
         <v>3</v>
       </c>
-      <c r="T74" s="28">
+      <c r="U74" s="28">
         <f t="shared" si="63"/>
         <v>3</v>
       </c>
-      <c r="U74" s="28">
+      <c r="V74" s="28">
         <f t="shared" si="64"/>
         <v>3</v>
       </c>
-      <c r="V74" s="28">
+      <c r="W74" s="28">
         <f t="shared" si="65"/>
         <v>3</v>
       </c>
-      <c r="W74" s="28">
+      <c r="X74" s="28">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="X74" s="28">
+      <c r="Y74" s="28">
         <f t="shared" si="67"/>
-        <v>3</v>
-      </c>
-      <c r="Y74" s="28">
-        <f t="shared" si="68"/>
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="3:25">
+    <row r="75" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C75" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -10959,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="P75" s="37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="Q75" s="57" t="s">
@@ -10967,35 +11647,35 @@
       </c>
       <c r="R75" s="17"/>
       <c r="S75" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T75" s="28">
+      <c r="U75" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U75" s="28">
+      <c r="V75" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V75" s="28">
+      <c r="W75" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W75" s="28">
+      <c r="X75" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X75" s="28">
+      <c r="Y75" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y75" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="3:25">
+    </row>
+    <row r="76" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C76" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -11036,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="Q76" s="57" t="s">
@@ -11044,35 +11724,35 @@
       </c>
       <c r="R76" s="17"/>
       <c r="S76" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T76" s="28">
+      <c r="U76" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U76" s="28">
+      <c r="V76" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V76" s="28">
+      <c r="W76" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W76" s="28">
+      <c r="X76" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X76" s="28">
+      <c r="Y76" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y76" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="3:25">
+    </row>
+    <row r="77" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C77" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -11113,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="Q77" s="57" t="s">
@@ -11121,35 +11801,35 @@
       </c>
       <c r="R77" s="17"/>
       <c r="S77" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T77" s="28">
+      <c r="U77" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U77" s="28">
+      <c r="V77" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V77" s="28">
+      <c r="W77" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W77" s="28">
+      <c r="X77" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X77" s="28">
+      <c r="Y77" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y77" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:25">
+    </row>
+    <row r="78" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C78" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -11190,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="Q78" s="57" t="s">
@@ -11198,35 +11878,35 @@
       </c>
       <c r="R78" s="17"/>
       <c r="S78" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T78" s="28">
+      <c r="U78" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U78" s="28">
+      <c r="V78" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V78" s="28">
+      <c r="W78" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W78" s="28">
+      <c r="X78" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X78" s="28">
+      <c r="Y78" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y78" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="3:25">
+    </row>
+    <row r="79" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C79" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -11267,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="Q79" s="57" t="s">
@@ -11275,35 +11955,35 @@
       </c>
       <c r="R79" s="17"/>
       <c r="S79" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T79" s="28">
+      <c r="U79" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U79" s="28">
+      <c r="V79" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V79" s="28">
+      <c r="W79" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W79" s="28">
+      <c r="X79" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X79" s="28">
+      <c r="Y79" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y79" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="3:25">
+    </row>
+    <row r="80" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C80" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -11344,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="Q80" s="57" t="s">
@@ -11352,41 +12032,41 @@
       </c>
       <c r="R80" s="17"/>
       <c r="S80" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T80" s="28">
+      <c r="U80" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U80" s="28">
+      <c r="V80" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V80" s="28">
+      <c r="W80" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W80" s="28">
+      <c r="X80" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X80" s="28">
+      <c r="Y80" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y80" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25">
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
       <c r="I81" s="16" t="s">
         <v>42</v>
       </c>
@@ -11395,61 +12075,61 @@
         <v>2</v>
       </c>
       <c r="K81" s="38">
-        <f t="shared" ref="K81:O81" si="70">SUM(K75:K80)</f>
+        <f t="shared" ref="K81:O81" si="69">SUM(K75:K80)</f>
         <v>2</v>
       </c>
       <c r="L81" s="38">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="M81" s="38">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="N81" s="38">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="O81" s="38">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="P81" s="38">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>12</v>
       </c>
       <c r="Q81" s="33"/>
       <c r="R81" s="17"/>
       <c r="S81" s="28">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="T81" s="28">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="T81" s="28">
+      <c r="U81" s="28">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="U81" s="28">
+      <c r="V81" s="28">
         <f t="shared" si="64"/>
         <v>2</v>
       </c>
-      <c r="V81" s="28">
+      <c r="W81" s="28">
         <f t="shared" si="65"/>
         <v>2</v>
       </c>
-      <c r="W81" s="28">
+      <c r="X81" s="28">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="X81" s="28">
+      <c r="Y81" s="28">
         <f t="shared" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="Y81" s="28">
-        <f t="shared" si="68"/>
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:25">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C82" s="56">
         <v>42164.583333333336</v>
       </c>
@@ -11490,41 +12170,41 @@
         <v>2</v>
       </c>
       <c r="P82" s="37">
-        <f t="shared" ref="P82:P83" si="71">SUM(J82:O82)</f>
+        <f t="shared" ref="P82:P83" si="70">SUM(J82:O82)</f>
         <v>12</v>
       </c>
       <c r="Q82" s="32"/>
       <c r="R82" s="17"/>
       <c r="S82" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T82" s="28">
+      <c r="U82" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U82" s="28">
+      <c r="V82" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V82" s="28">
+      <c r="W82" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W82" s="28">
+      <c r="X82" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X82" s="28">
+      <c r="Y82" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y82" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="3:25">
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C83" s="56">
         <v>42164.791666666664</v>
       </c>
@@ -11565,47 +12245,47 @@
         <v>2</v>
       </c>
       <c r="P83" s="37">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>12</v>
       </c>
       <c r="Q83" s="32"/>
       <c r="R83" s="17"/>
       <c r="S83" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T83" s="28">
+      <c r="U83" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U83" s="28">
+      <c r="V83" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V83" s="28">
+      <c r="W83" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W83" s="28">
+      <c r="X83" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X83" s="28">
+      <c r="Y83" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y83" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25">
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
       <c r="I84" s="16" t="s">
         <v>42</v>
       </c>
@@ -11614,61 +12294,61 @@
         <v>4</v>
       </c>
       <c r="K84" s="38">
-        <f t="shared" ref="K84:O84" si="72">SUM(K82:K83)</f>
+        <f t="shared" ref="K84:O84" si="71">SUM(K82:K83)</f>
         <v>4</v>
       </c>
       <c r="L84" s="38">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
       <c r="M84" s="38">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
       <c r="N84" s="38">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
       <c r="O84" s="38">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
       <c r="P84" s="38">
-        <f t="shared" ref="P84" si="73">SUM(J84:O84)</f>
+        <f t="shared" ref="P84" si="72">SUM(J84:O84)</f>
         <v>24</v>
       </c>
       <c r="Q84" s="33"/>
       <c r="R84" s="17"/>
       <c r="S84" s="28">
+        <f t="shared" si="61"/>
+        <v>4</v>
+      </c>
+      <c r="T84" s="28">
         <f t="shared" si="62"/>
         <v>4</v>
       </c>
-      <c r="T84" s="28">
+      <c r="U84" s="28">
         <f t="shared" si="63"/>
         <v>4</v>
       </c>
-      <c r="U84" s="28">
+      <c r="V84" s="28">
         <f t="shared" si="64"/>
         <v>4</v>
       </c>
-      <c r="V84" s="28">
+      <c r="W84" s="28">
         <f t="shared" si="65"/>
         <v>4</v>
       </c>
-      <c r="W84" s="28">
+      <c r="X84" s="28">
         <f t="shared" si="66"/>
         <v>4</v>
       </c>
-      <c r="X84" s="28">
+      <c r="Y84" s="28">
         <f t="shared" si="67"/>
-        <v>4</v>
-      </c>
-      <c r="Y84" s="28">
-        <f t="shared" si="68"/>
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="3:25">
+    <row r="85" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C85" s="59">
         <v>42165.520833333336</v>
       </c>
@@ -11699,63 +12379,63 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="L85" s="37">
-        <f t="shared" ref="L85" si="74">K85</f>
+        <f t="shared" ref="L85" si="73">K85</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="M85" s="37">
-        <f t="shared" ref="M85" si="75">L85</f>
+        <f t="shared" ref="M85" si="74">L85</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="N85" s="37">
-        <f t="shared" ref="N85" si="76">M85</f>
+        <f t="shared" ref="N85" si="75">M85</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="O85" s="37">
-        <f t="shared" ref="O85" si="77">N85</f>
+        <f t="shared" ref="O85" si="76">N85</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="P85" s="37">
-        <f t="shared" ref="P85:P95" si="78">SUM(J85:O85)</f>
+        <f t="shared" ref="P85:P95" si="77">SUM(J85:O85)</f>
         <v>3.9999999999999996</v>
       </c>
       <c r="Q85" s="32"/>
       <c r="R85" s="17"/>
       <c r="S85" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T85" s="28">
+      <c r="U85" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U85" s="28">
+      <c r="V85" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V85" s="28">
+      <c r="W85" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W85" s="28">
+      <c r="X85" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X85" s="28">
+      <c r="Y85" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y85" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:25">
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
       <c r="I86" s="16" t="s">
         <v>42</v>
       </c>
@@ -11764,61 +12444,61 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K86" s="38">
-        <f t="shared" ref="K86:O86" si="79">SUM(K85)</f>
+        <f t="shared" ref="K86:O86" si="78">SUM(K85)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="L86" s="38">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="M86" s="38">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="N86" s="38">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O86" s="38">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P86" s="38">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>3.9999999999999996</v>
       </c>
       <c r="Q86" s="33"/>
       <c r="R86" s="17"/>
       <c r="S86" s="28">
+        <f t="shared" si="61"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T86" s="28">
         <f t="shared" si="62"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T86" s="28">
+      <c r="U86" s="28">
         <f t="shared" si="63"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="U86" s="28">
+      <c r="V86" s="28">
         <f t="shared" si="64"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="V86" s="28">
+      <c r="W86" s="28">
         <f t="shared" si="65"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="W86" s="28">
+      <c r="X86" s="28">
         <f t="shared" si="66"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="X86" s="28">
+      <c r="Y86" s="28">
         <f t="shared" si="67"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Y86" s="28">
-        <f t="shared" si="68"/>
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="3:25">
+    <row r="87" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C87" s="59">
         <v>42165.625</v>
       </c>
@@ -11838,7 +12518,7 @@
         <v>187</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J87" s="37">
         <v>0</v>
@@ -11859,47 +12539,47 @@
         <v>0</v>
       </c>
       <c r="P87" s="37">
-        <f t="shared" ref="P87" si="80">SUM(J87:O87)</f>
+        <f t="shared" ref="P87" si="79">SUM(J87:O87)</f>
         <v>7</v>
       </c>
       <c r="Q87" s="32"/>
       <c r="R87" s="17"/>
       <c r="S87" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T87" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T87" s="28">
+      <c r="U87" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U87" s="28">
+      <c r="V87" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V87" s="28">
+      <c r="W87" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W87" s="28">
+      <c r="X87" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X87" s="28">
+      <c r="Y87" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y87" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="3:25">
-      <c r="C88" s="73"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
       <c r="I88" s="16" t="s">
         <v>42</v>
       </c>
@@ -11908,61 +12588,61 @@
         <v>0</v>
       </c>
       <c r="K88" s="38">
-        <f t="shared" ref="K88" si="81">SUM(K87)</f>
+        <f t="shared" ref="K88" si="80">SUM(K87)</f>
         <v>0</v>
       </c>
       <c r="L88" s="38">
-        <f t="shared" ref="L88" si="82">SUM(L87)</f>
+        <f t="shared" ref="L88" si="81">SUM(L87)</f>
         <v>0</v>
       </c>
       <c r="M88" s="38">
-        <f t="shared" ref="M88" si="83">SUM(M87)</f>
+        <f t="shared" ref="M88" si="82">SUM(M87)</f>
         <v>7</v>
       </c>
       <c r="N88" s="38">
-        <f t="shared" ref="N88" si="84">SUM(N87)</f>
+        <f t="shared" ref="N88" si="83">SUM(N87)</f>
         <v>0</v>
       </c>
       <c r="O88" s="38">
-        <f t="shared" ref="O88" si="85">SUM(O87)</f>
+        <f t="shared" ref="O88" si="84">SUM(O87)</f>
         <v>0</v>
       </c>
       <c r="P88" s="38">
-        <f t="shared" ref="P88" si="86">SUM(J88:O88)</f>
+        <f t="shared" ref="P88" si="85">SUM(J88:O88)</f>
         <v>7</v>
       </c>
       <c r="Q88" s="33"/>
       <c r="R88" s="17"/>
       <c r="S88" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T88" s="28">
+      <c r="U88" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U88" s="28">
+      <c r="V88" s="28">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="V88" s="28">
+        <v>7</v>
+      </c>
+      <c r="W88" s="28">
         <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="X88" s="28">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="28">
+        <f t="shared" si="67"/>
         <v>7</v>
       </c>
-      <c r="W88" s="28">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="X88" s="28">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="28">
-        <f t="shared" si="68"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="3:25">
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C89" s="59">
         <v>42168.375</v>
       </c>
@@ -11976,13 +12656,13 @@
         <v>198</v>
       </c>
       <c r="G89" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H89" s="58" t="s">
         <v>190</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J89" s="37">
         <v>0</v>
@@ -12003,41 +12683,41 @@
         <v>9</v>
       </c>
       <c r="P89" s="37">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="Q89" s="32"/>
       <c r="R89" s="17"/>
       <c r="S89" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T89" s="28">
+      <c r="U89" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U89" s="28">
+      <c r="V89" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V89" s="28">
+      <c r="W89" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W89" s="28">
+      <c r="X89" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X89" s="28">
+      <c r="Y89" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y89" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25">
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C90" s="59">
         <v>42168.375</v>
       </c>
@@ -12057,7 +12737,7 @@
         <v>187</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J90" s="37">
         <v>0</v>
@@ -12078,41 +12758,41 @@
         <v>0</v>
       </c>
       <c r="P90" s="37">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="Q90" s="32"/>
       <c r="R90" s="17"/>
       <c r="S90" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T90" s="28">
+      <c r="U90" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U90" s="28">
+      <c r="V90" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V90" s="28">
+      <c r="W90" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W90" s="28">
+      <c r="X90" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X90" s="28">
+      <c r="Y90" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y90" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="3:25">
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C91" s="59">
         <v>42168.375</v>
       </c>
@@ -12132,7 +12812,7 @@
         <v>188</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J91" s="37">
         <v>9</v>
@@ -12153,41 +12833,41 @@
         <v>0</v>
       </c>
       <c r="P91" s="37">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="Q91" s="32"/>
       <c r="R91" s="17"/>
       <c r="S91" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T91" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T91" s="28">
+      <c r="U91" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U91" s="28">
+      <c r="V91" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V91" s="28">
+      <c r="W91" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W91" s="28">
+      <c r="X91" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X91" s="28">
+      <c r="Y91" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y91" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25">
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C92" s="59">
         <v>42168.375</v>
       </c>
@@ -12207,7 +12887,7 @@
         <v>199</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J92" s="37">
         <v>0</v>
@@ -12228,41 +12908,41 @@
         <v>0</v>
       </c>
       <c r="P92" s="37">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="Q92" s="32"/>
       <c r="R92" s="17"/>
       <c r="S92" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T92" s="28">
+      <c r="U92" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U92" s="28">
+      <c r="V92" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V92" s="28">
+      <c r="W92" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W92" s="28">
+      <c r="X92" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X92" s="28">
+      <c r="Y92" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y92" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="3:25">
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C93" s="59">
         <v>42168.375</v>
       </c>
@@ -12282,7 +12962,7 @@
         <v>190</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J93" s="37">
         <v>0</v>
@@ -12303,41 +12983,41 @@
         <v>0</v>
       </c>
       <c r="P93" s="37">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="Q93" s="32"/>
       <c r="R93" s="17"/>
       <c r="S93" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T93" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T93" s="28">
+      <c r="U93" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U93" s="28">
+      <c r="V93" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V93" s="28">
+      <c r="W93" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W93" s="28">
+      <c r="X93" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X93" s="28">
+      <c r="Y93" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y93" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="3:25">
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C94" s="59">
         <v>42168.375</v>
       </c>
@@ -12357,7 +13037,7 @@
         <v>191</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J94" s="37">
         <v>0</v>
@@ -12378,47 +13058,47 @@
         <v>0</v>
       </c>
       <c r="P94" s="37">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="Q94" s="32"/>
       <c r="R94" s="17"/>
       <c r="S94" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T94" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T94" s="28">
+      <c r="U94" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U94" s="28">
+      <c r="V94" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V94" s="28">
+      <c r="W94" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W94" s="28">
+      <c r="X94" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X94" s="28">
+      <c r="Y94" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y94" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25">
-      <c r="C95" s="73"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="73"/>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
       <c r="I95" s="16" t="s">
         <v>42</v>
       </c>
@@ -12427,61 +13107,61 @@
         <v>9</v>
       </c>
       <c r="K95" s="38">
-        <f t="shared" ref="K95:O95" si="87">SUM(K89:K94)</f>
+        <f t="shared" ref="K95:O95" si="86">SUM(K89:K94)</f>
         <v>9</v>
       </c>
       <c r="L95" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>9</v>
       </c>
       <c r="M95" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>9</v>
       </c>
       <c r="N95" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>9</v>
       </c>
       <c r="O95" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>9</v>
       </c>
       <c r="P95" s="38">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>54</v>
       </c>
       <c r="Q95" s="33"/>
       <c r="R95" s="17"/>
       <c r="S95" s="28">
+        <f t="shared" si="61"/>
+        <v>9</v>
+      </c>
+      <c r="T95" s="28">
         <f t="shared" si="62"/>
         <v>9</v>
       </c>
-      <c r="T95" s="28">
+      <c r="U95" s="28">
         <f t="shared" si="63"/>
         <v>9</v>
       </c>
-      <c r="U95" s="28">
+      <c r="V95" s="28">
         <f t="shared" si="64"/>
         <v>9</v>
       </c>
-      <c r="V95" s="28">
+      <c r="W95" s="28">
         <f t="shared" si="65"/>
         <v>9</v>
       </c>
-      <c r="W95" s="28">
+      <c r="X95" s="28">
         <f t="shared" si="66"/>
         <v>9</v>
       </c>
-      <c r="X95" s="28">
+      <c r="Y95" s="28">
         <f t="shared" si="67"/>
-        <v>9</v>
-      </c>
-      <c r="Y95" s="28">
-        <f t="shared" si="68"/>
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="3:25">
+    <row r="96" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C96" s="59">
         <v>42169.375</v>
       </c>
@@ -12501,7 +13181,7 @@
         <v>190</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J96" s="37">
         <v>0</v>
@@ -12522,41 +13202,41 @@
         <v>9</v>
       </c>
       <c r="P96" s="37">
-        <f t="shared" ref="P96:P102" si="88">SUM(J96:O96)</f>
+        <f t="shared" ref="P96:P102" si="87">SUM(J96:O96)</f>
         <v>9</v>
       </c>
       <c r="Q96" s="32"/>
       <c r="R96" s="17"/>
       <c r="S96" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T96" s="28">
+      <c r="U96" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U96" s="28">
+      <c r="V96" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V96" s="28">
+      <c r="W96" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W96" s="28">
+      <c r="X96" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X96" s="28">
+      <c r="Y96" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y96" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25">
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C97" s="59">
         <v>42169.375</v>
       </c>
@@ -12576,7 +13256,7 @@
         <v>187</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J97" s="37">
         <v>0</v>
@@ -12597,41 +13277,41 @@
         <v>0</v>
       </c>
       <c r="P97" s="37">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>9</v>
       </c>
       <c r="Q97" s="32"/>
       <c r="R97" s="17"/>
       <c r="S97" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T97" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T97" s="28">
+      <c r="U97" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U97" s="28">
+      <c r="V97" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V97" s="28">
+      <c r="W97" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W97" s="28">
+      <c r="X97" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X97" s="28">
+      <c r="Y97" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y97" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="3:25">
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C98" s="59">
         <v>42169.375</v>
       </c>
@@ -12651,7 +13331,7 @@
         <v>188</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J98" s="37">
         <v>9</v>
@@ -12672,41 +13352,41 @@
         <v>0</v>
       </c>
       <c r="P98" s="37">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>9</v>
       </c>
       <c r="Q98" s="32"/>
       <c r="R98" s="17"/>
       <c r="S98" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T98" s="28">
+      <c r="U98" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U98" s="28">
+      <c r="V98" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V98" s="28">
+      <c r="W98" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W98" s="28">
+      <c r="X98" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X98" s="28">
+      <c r="Y98" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y98" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="3:25">
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C99" s="59">
         <v>42169.375</v>
       </c>
@@ -12726,7 +13406,7 @@
         <v>199</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J99" s="37">
         <v>0</v>
@@ -12747,41 +13427,41 @@
         <v>0</v>
       </c>
       <c r="P99" s="37">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>9</v>
       </c>
       <c r="Q99" s="32"/>
       <c r="R99" s="17"/>
       <c r="S99" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T99" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T99" s="28">
+      <c r="U99" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U99" s="28">
+      <c r="V99" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V99" s="28">
+      <c r="W99" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W99" s="28">
+      <c r="X99" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X99" s="28">
+      <c r="Y99" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y99" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="3:25">
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C100" s="59">
         <v>42169.375</v>
       </c>
@@ -12801,7 +13481,7 @@
         <v>190</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J100" s="37">
         <v>0</v>
@@ -12822,41 +13502,41 @@
         <v>0</v>
       </c>
       <c r="P100" s="37">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>9</v>
       </c>
       <c r="Q100" s="32"/>
       <c r="R100" s="17"/>
       <c r="S100" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T100" s="28">
+      <c r="U100" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U100" s="28">
+      <c r="V100" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V100" s="28">
+      <c r="W100" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W100" s="28">
+      <c r="X100" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X100" s="28">
+      <c r="Y100" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y100" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25">
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C101" s="59">
         <v>42169.375</v>
       </c>
@@ -12876,7 +13556,7 @@
         <v>191</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J101" s="37">
         <v>0</v>
@@ -12897,47 +13577,47 @@
         <v>0</v>
       </c>
       <c r="P101" s="37">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>9</v>
       </c>
       <c r="Q101" s="32"/>
       <c r="R101" s="17"/>
       <c r="S101" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T101" s="28">
+      <c r="U101" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U101" s="28">
+      <c r="V101" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V101" s="28">
+      <c r="W101" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W101" s="28">
+      <c r="X101" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X101" s="28">
+      <c r="Y101" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y101" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25">
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
       <c r="I102" s="16" t="s">
         <v>42</v>
       </c>
@@ -12946,61 +13626,61 @@
         <v>9</v>
       </c>
       <c r="K102" s="38">
-        <f t="shared" ref="K102:O102" si="89">SUM(K96:K101)</f>
+        <f t="shared" ref="K102:O102" si="88">SUM(K96:K101)</f>
         <v>9</v>
       </c>
       <c r="L102" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>9</v>
       </c>
       <c r="M102" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>9</v>
       </c>
       <c r="N102" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>9</v>
       </c>
       <c r="O102" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>9</v>
       </c>
       <c r="P102" s="38">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>54</v>
       </c>
       <c r="Q102" s="33"/>
       <c r="R102" s="17"/>
       <c r="S102" s="28">
+        <f t="shared" si="61"/>
+        <v>9</v>
+      </c>
+      <c r="T102" s="28">
         <f t="shared" si="62"/>
         <v>9</v>
       </c>
-      <c r="T102" s="28">
+      <c r="U102" s="28">
         <f t="shared" si="63"/>
         <v>9</v>
       </c>
-      <c r="U102" s="28">
+      <c r="V102" s="28">
         <f t="shared" si="64"/>
         <v>9</v>
       </c>
-      <c r="V102" s="28">
+      <c r="W102" s="28">
         <f t="shared" si="65"/>
         <v>9</v>
       </c>
-      <c r="W102" s="28">
+      <c r="X102" s="28">
         <f t="shared" si="66"/>
         <v>9</v>
       </c>
-      <c r="X102" s="28">
+      <c r="Y102" s="28">
         <f t="shared" si="67"/>
-        <v>9</v>
-      </c>
-      <c r="Y102" s="28">
-        <f t="shared" si="68"/>
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="3:25">
+    <row r="103" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C103" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13020,7 +13700,7 @@
         <v>190</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J103" s="37">
         <v>0</v>
@@ -13041,41 +13721,41 @@
         <v>7</v>
       </c>
       <c r="P103" s="37">
-        <f t="shared" ref="P103:P109" si="90">SUM(J103:O103)</f>
+        <f t="shared" ref="P103:P109" si="89">SUM(J103:O103)</f>
         <v>7</v>
       </c>
       <c r="Q103" s="32"/>
       <c r="R103" s="17"/>
       <c r="S103" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T103" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T103" s="28">
+      <c r="U103" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U103" s="28">
+      <c r="V103" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V103" s="28">
+      <c r="W103" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W103" s="28">
+      <c r="X103" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X103" s="28">
+      <c r="Y103" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y103" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="3:25">
+    </row>
+    <row r="104" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C104" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13095,7 +13775,7 @@
         <v>187</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J104" s="37">
         <v>0</v>
@@ -13116,41 +13796,41 @@
         <v>0</v>
       </c>
       <c r="P104" s="37">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>7</v>
       </c>
       <c r="Q104" s="32"/>
       <c r="R104" s="17"/>
       <c r="S104" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T104" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T104" s="28">
+      <c r="U104" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U104" s="28">
+      <c r="V104" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V104" s="28">
+      <c r="W104" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W104" s="28">
+      <c r="X104" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X104" s="28">
+      <c r="Y104" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y104" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="3:25">
+    </row>
+    <row r="105" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C105" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13170,7 +13850,7 @@
         <v>188</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J105" s="37">
         <v>7</v>
@@ -13191,41 +13871,41 @@
         <v>0</v>
       </c>
       <c r="P105" s="37">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>7</v>
       </c>
       <c r="Q105" s="32"/>
       <c r="R105" s="17"/>
       <c r="S105" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T105" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T105" s="28">
+      <c r="U105" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U105" s="28">
+      <c r="V105" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V105" s="28">
+      <c r="W105" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W105" s="28">
+      <c r="X105" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X105" s="28">
+      <c r="Y105" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y105" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="3:25">
+    </row>
+    <row r="106" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C106" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13245,7 +13925,7 @@
         <v>199</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J106" s="37">
         <v>0</v>
@@ -13266,41 +13946,41 @@
         <v>0</v>
       </c>
       <c r="P106" s="37">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>7</v>
       </c>
       <c r="Q106" s="32"/>
       <c r="R106" s="17"/>
       <c r="S106" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T106" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T106" s="28">
+      <c r="U106" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U106" s="28">
+      <c r="V106" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V106" s="28">
+      <c r="W106" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W106" s="28">
+      <c r="X106" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X106" s="28">
+      <c r="Y106" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y106" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="3:25">
+    </row>
+    <row r="107" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C107" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13320,7 +14000,7 @@
         <v>190</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J107" s="37">
         <v>0</v>
@@ -13341,41 +14021,41 @@
         <v>0</v>
       </c>
       <c r="P107" s="37">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>7</v>
       </c>
       <c r="Q107" s="32"/>
       <c r="R107" s="17"/>
       <c r="S107" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T107" s="28">
+      <c r="U107" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U107" s="28">
+      <c r="V107" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V107" s="28">
+      <c r="W107" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W107" s="28">
+      <c r="X107" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X107" s="28">
+      <c r="Y107" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y107" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="3:25">
+    </row>
+    <row r="108" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C108" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13395,7 +14075,7 @@
         <v>191</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J108" s="37">
         <v>0</v>
@@ -13416,47 +14096,47 @@
         <v>0</v>
       </c>
       <c r="P108" s="37">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>7</v>
       </c>
       <c r="Q108" s="32"/>
       <c r="R108" s="17"/>
       <c r="S108" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T108" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T108" s="28">
+      <c r="U108" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U108" s="28">
+      <c r="V108" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V108" s="28">
+      <c r="W108" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W108" s="28">
+      <c r="X108" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X108" s="28">
+      <c r="Y108" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y108" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="3:25">
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="73"/>
-      <c r="H109" s="73"/>
+    </row>
+    <row r="109" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C109" s="75"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
       <c r="I109" s="16" t="s">
         <v>42</v>
       </c>
@@ -13465,61 +14145,61 @@
         <v>7</v>
       </c>
       <c r="K109" s="38">
-        <f t="shared" ref="K109:O109" si="91">SUM(K103:K108)</f>
+        <f t="shared" ref="K109:O109" si="90">SUM(K103:K108)</f>
         <v>7</v>
       </c>
       <c r="L109" s="38">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>7</v>
       </c>
       <c r="M109" s="38">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>7</v>
       </c>
       <c r="N109" s="38">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>7</v>
       </c>
       <c r="O109" s="38">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>7</v>
       </c>
       <c r="P109" s="38">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>42</v>
       </c>
       <c r="Q109" s="33"/>
       <c r="R109" s="17"/>
       <c r="S109" s="28">
+        <f t="shared" si="61"/>
+        <v>7</v>
+      </c>
+      <c r="T109" s="28">
         <f t="shared" si="62"/>
         <v>7</v>
       </c>
-      <c r="T109" s="28">
+      <c r="U109" s="28">
         <f t="shared" si="63"/>
         <v>7</v>
       </c>
-      <c r="U109" s="28">
+      <c r="V109" s="28">
         <f t="shared" si="64"/>
         <v>7</v>
       </c>
-      <c r="V109" s="28">
+      <c r="W109" s="28">
         <f t="shared" si="65"/>
         <v>7</v>
       </c>
-      <c r="W109" s="28">
+      <c r="X109" s="28">
         <f t="shared" si="66"/>
         <v>7</v>
       </c>
-      <c r="X109" s="28">
+      <c r="Y109" s="28">
         <f t="shared" si="67"/>
-        <v>7</v>
-      </c>
-      <c r="Y109" s="28">
-        <f t="shared" si="68"/>
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="3:25">
+    <row r="110" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C110" s="59">
         <v>42171.833333333336</v>
       </c>
@@ -13530,16 +14210,16 @@
         <v>106</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G110" s="58" t="s">
         <v>108</v>
       </c>
       <c r="H110" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="J110" s="37">
         <v>3</v>
@@ -13560,110 +14240,110 @@
         <v>3</v>
       </c>
       <c r="P110" s="37">
-        <f t="shared" ref="P110:P111" si="92">SUM(J110:O110)</f>
+        <f t="shared" ref="P110:P111" si="91">SUM(J110:O110)</f>
         <v>18</v>
       </c>
       <c r="Q110" s="32"/>
       <c r="R110" s="17"/>
       <c r="S110" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T110" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T110" s="28">
+      <c r="U110" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U110" s="28">
+      <c r="V110" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V110" s="28">
+      <c r="W110" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W110" s="28">
+      <c r="X110" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X110" s="28">
+      <c r="Y110" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y110" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="3:25">
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="73"/>
-      <c r="G111" s="73"/>
-      <c r="H111" s="73"/>
+    </row>
+    <row r="111" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C111" s="75"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="75"/>
+      <c r="H111" s="75"/>
       <c r="I111" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J111" s="38">
-        <f>SUM(J110:J110)</f>
+        <f t="shared" ref="J111:O111" si="92">SUM(J110:J110)</f>
         <v>3</v>
       </c>
       <c r="K111" s="38">
-        <f>SUM(K110:K110)</f>
+        <f t="shared" si="92"/>
         <v>3</v>
       </c>
       <c r="L111" s="38">
-        <f>SUM(L110:L110)</f>
+        <f t="shared" si="92"/>
         <v>3</v>
       </c>
       <c r="M111" s="38">
-        <f>SUM(M110:M110)</f>
+        <f t="shared" si="92"/>
         <v>3</v>
       </c>
       <c r="N111" s="38">
-        <f>SUM(N110:N110)</f>
+        <f t="shared" si="92"/>
         <v>3</v>
       </c>
       <c r="O111" s="38">
-        <f>SUM(O110:O110)</f>
+        <f t="shared" si="92"/>
         <v>3</v>
       </c>
       <c r="P111" s="38">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>18</v>
       </c>
       <c r="Q111" s="33"/>
       <c r="R111" s="17"/>
       <c r="S111" s="28">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="T111" s="28">
         <f t="shared" si="62"/>
         <v>3</v>
       </c>
-      <c r="T111" s="28">
+      <c r="U111" s="28">
         <f t="shared" si="63"/>
         <v>3</v>
       </c>
-      <c r="U111" s="28">
+      <c r="V111" s="28">
         <f t="shared" si="64"/>
         <v>3</v>
       </c>
-      <c r="V111" s="28">
+      <c r="W111" s="28">
         <f t="shared" si="65"/>
         <v>3</v>
       </c>
-      <c r="W111" s="28">
+      <c r="X111" s="28">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="X111" s="28">
+      <c r="Y111" s="28">
         <f t="shared" si="67"/>
-        <v>3</v>
-      </c>
-      <c r="Y111" s="28">
-        <f t="shared" si="68"/>
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="3:25">
+    <row r="112" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C112" s="59"/>
       <c r="D112" s="59"/>
       <c r="E112" s="3"/>
@@ -13681,35 +14361,35 @@
       <c r="Q112" s="32"/>
       <c r="R112" s="17"/>
       <c r="S112" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T112" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T112" s="28">
+      <c r="U112" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U112" s="28">
+      <c r="V112" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V112" s="28">
+      <c r="W112" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W112" s="28">
+      <c r="X112" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X112" s="28">
+      <c r="Y112" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y112" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:25">
+    </row>
+    <row r="113" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C113" s="59"/>
       <c r="D113" s="59"/>
       <c r="E113" s="3"/>
@@ -13727,35 +14407,35 @@
       <c r="Q113" s="32"/>
       <c r="R113" s="17"/>
       <c r="S113" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T113" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T113" s="28">
+      <c r="U113" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U113" s="28">
+      <c r="V113" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V113" s="28">
+      <c r="W113" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W113" s="28">
+      <c r="X113" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X113" s="28">
+      <c r="Y113" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y113" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:25">
+    </row>
+    <row r="114" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C114" s="59"/>
       <c r="D114" s="59"/>
       <c r="E114" s="3"/>
@@ -13773,35 +14453,35 @@
       <c r="Q114" s="32"/>
       <c r="R114" s="17"/>
       <c r="S114" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T114" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T114" s="28">
+      <c r="U114" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U114" s="28">
+      <c r="V114" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V114" s="28">
+      <c r="W114" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W114" s="28">
+      <c r="X114" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X114" s="28">
+      <c r="Y114" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y114" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:25">
+    </row>
+    <row r="115" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C115" s="59"/>
       <c r="D115" s="59"/>
       <c r="E115" s="3"/>
@@ -13819,35 +14499,35 @@
       <c r="Q115" s="32"/>
       <c r="R115" s="17"/>
       <c r="S115" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T115" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T115" s="28">
+      <c r="U115" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U115" s="28">
+      <c r="V115" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V115" s="28">
+      <c r="W115" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W115" s="28">
+      <c r="X115" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X115" s="28">
+      <c r="Y115" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y115" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="3:25">
+    </row>
+    <row r="116" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C116" s="59"/>
       <c r="D116" s="59"/>
       <c r="E116" s="3"/>
@@ -13865,35 +14545,35 @@
       <c r="Q116" s="32"/>
       <c r="R116" s="17"/>
       <c r="S116" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T116" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T116" s="28">
+      <c r="U116" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U116" s="28">
+      <c r="V116" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V116" s="28">
+      <c r="W116" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W116" s="28">
+      <c r="X116" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X116" s="28">
+      <c r="Y116" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y116" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="3:25">
+    </row>
+    <row r="117" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C117" s="59"/>
       <c r="D117" s="59"/>
       <c r="E117" s="3"/>
@@ -13911,35 +14591,35 @@
       <c r="Q117" s="32"/>
       <c r="R117" s="17"/>
       <c r="S117" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T117" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T117" s="28">
+      <c r="U117" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U117" s="28">
+      <c r="V117" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V117" s="28">
+      <c r="W117" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W117" s="28">
+      <c r="X117" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X117" s="28">
+      <c r="Y117" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y117" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="3:25">
+    </row>
+    <row r="118" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C118" s="59"/>
       <c r="D118" s="59"/>
       <c r="E118" s="3"/>
@@ -13957,35 +14637,35 @@
       <c r="Q118" s="32"/>
       <c r="R118" s="17"/>
       <c r="S118" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T118" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T118" s="28">
+      <c r="U118" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U118" s="28">
+      <c r="V118" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V118" s="28">
+      <c r="W118" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W118" s="28">
+      <c r="X118" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X118" s="28">
+      <c r="Y118" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y118" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:25">
+    </row>
+    <row r="119" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C119" s="59"/>
       <c r="D119" s="59"/>
       <c r="E119" s="3"/>
@@ -14003,35 +14683,35 @@
       <c r="Q119" s="32"/>
       <c r="R119" s="17"/>
       <c r="S119" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T119" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T119" s="28">
+      <c r="U119" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U119" s="28">
+      <c r="V119" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V119" s="28">
+      <c r="W119" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W119" s="28">
+      <c r="X119" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X119" s="28">
+      <c r="Y119" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y119" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:25">
+    </row>
+    <row r="120" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C120" s="59"/>
       <c r="D120" s="59"/>
       <c r="E120" s="3"/>
@@ -14049,35 +14729,35 @@
       <c r="Q120" s="32"/>
       <c r="R120" s="17"/>
       <c r="S120" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T120" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T120" s="28">
+      <c r="U120" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U120" s="28">
+      <c r="V120" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V120" s="28">
+      <c r="W120" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W120" s="28">
+      <c r="X120" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X120" s="28">
+      <c r="Y120" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y120" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="3:25">
+    </row>
+    <row r="121" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C121" s="47"/>
       <c r="D121" s="47"/>
       <c r="E121" s="3"/>
@@ -14098,35 +14778,35 @@
       <c r="Q121" s="32"/>
       <c r="R121" s="17"/>
       <c r="S121" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T121" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T121" s="28">
+      <c r="U121" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U121" s="28">
+      <c r="V121" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V121" s="28">
+      <c r="W121" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W121" s="28">
+      <c r="X121" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X121" s="28">
+      <c r="Y121" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y121" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:25">
+    </row>
+    <row r="122" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C122" s="47"/>
       <c r="D122" s="47"/>
       <c r="E122" s="3"/>
@@ -14147,35 +14827,35 @@
       <c r="Q122" s="32"/>
       <c r="R122" s="17"/>
       <c r="S122" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T122" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T122" s="28">
+      <c r="U122" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U122" s="28">
+      <c r="V122" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V122" s="28">
+      <c r="W122" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W122" s="28">
+      <c r="X122" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X122" s="28">
+      <c r="Y122" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y122" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:25">
+    </row>
+    <row r="123" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -14196,35 +14876,35 @@
       <c r="Q123" s="32"/>
       <c r="R123" s="17"/>
       <c r="S123" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T123" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T123" s="28">
+      <c r="U123" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U123" s="28">
+      <c r="V123" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V123" s="28">
+      <c r="W123" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W123" s="28">
+      <c r="X123" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X123" s="28">
+      <c r="Y123" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y123" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="3:25">
+    </row>
+    <row r="124" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -14245,35 +14925,35 @@
       <c r="Q124" s="32"/>
       <c r="R124" s="17"/>
       <c r="S124" s="28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T124" s="28">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T124" s="28">
+      <c r="U124" s="28">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="U124" s="28">
+      <c r="V124" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="V124" s="28">
+      <c r="W124" s="28">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W124" s="28">
+      <c r="X124" s="28">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X124" s="28">
+      <c r="Y124" s="28">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y124" s="28">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="3:25">
+    </row>
+    <row r="125" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -14309,12 +14989,12 @@
       </c>
       <c r="P125" s="39">
         <f>SUM(Y5:Y124)</f>
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="Q125" s="34"/>
       <c r="R125" s="17"/>
     </row>
-    <row r="126" spans="3:25">
+    <row r="126" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -14332,7 +15012,7 @@
       <c r="Q126" s="35"/>
       <c r="R126" s="17"/>
     </row>
-    <row r="127" spans="3:25">
+    <row r="127" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -14350,7 +15030,7 @@
       <c r="Q127" s="35"/>
       <c r="R127" s="17"/>
     </row>
-    <row r="128" spans="3:25">
+    <row r="128" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
@@ -14368,7 +15048,7 @@
       <c r="Q128" s="35"/>
       <c r="R128" s="17"/>
     </row>
-    <row r="129" spans="3:18">
+    <row r="129" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
@@ -14386,7 +15066,7 @@
       <c r="Q129" s="35"/>
       <c r="R129" s="17"/>
     </row>
-    <row r="130" spans="3:18">
+    <row r="130" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
@@ -14404,7 +15084,7 @@
       <c r="Q130" s="35"/>
       <c r="R130" s="17"/>
     </row>
-    <row r="131" spans="3:18">
+    <row r="131" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
@@ -14422,7 +15102,7 @@
       <c r="Q131" s="35"/>
       <c r="R131" s="17"/>
     </row>
-    <row r="132" spans="3:18">
+    <row r="132" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
@@ -14440,7 +15120,7 @@
       <c r="Q132" s="35"/>
       <c r="R132" s="17"/>
     </row>
-    <row r="133" spans="3:18">
+    <row r="133" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
@@ -14457,7 +15137,7 @@
       <c r="P133" s="19"/>
       <c r="Q133" s="35"/>
     </row>
-    <row r="134" spans="3:18">
+    <row r="134" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
@@ -14476,13 +15156,39 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="C81:H81"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="Q27:Q30"/>
@@ -14499,39 +15205,13 @@
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C109:H109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -14546,66 +15226,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.09765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
-      <c r="B2" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="103" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101" t="s">
+      <c r="G2" s="103"/>
+      <c r="H2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102" t="s">
+      <c r="I2" s="103"/>
+      <c r="J2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="101"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="8" t="s">
         <v>37</v>
       </c>
@@ -14640,8 +15320,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="31.2">
-      <c r="B4" s="100" t="s">
+    <row r="4" spans="2:16" ht="27" x14ac:dyDescent="0.3">
+      <c r="B4" s="102" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -14673,8 +15353,8 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="100"/>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="102"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
@@ -14704,8 +15384,8 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="100"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="102"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
@@ -14735,8 +15415,8 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="100"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="102"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
@@ -14766,8 +15446,8 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="100"/>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="102"/>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
@@ -14797,8 +15477,8 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="100"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="102"/>
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
@@ -14828,8 +15508,8 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="100"/>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="102"/>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
@@ -14859,8 +15539,8 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="100"/>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="102"/>
       <c r="C11" s="5" t="s">
         <v>78</v>
       </c>
@@ -14890,8 +15570,8 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="100"/>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="102"/>
       <c r="C12" s="5" t="s">
         <v>79</v>
       </c>
@@ -14921,8 +15601,8 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="100"/>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="102"/>
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
@@ -14952,8 +15632,8 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="100" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="102" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -14985,8 +15665,8 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="100"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="102"/>
       <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
@@ -15016,8 +15696,8 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="100"/>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="102"/>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
@@ -15047,8 +15727,8 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="100"/>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="102"/>
       <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
@@ -15078,8 +15758,8 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="100" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="102" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -15111,8 +15791,8 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="100"/>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="102"/>
       <c r="C19" s="22" t="s">
         <v>111</v>
       </c>
@@ -15142,8 +15822,8 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="100"/>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="102"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
@@ -15173,8 +15853,8 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="100"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="102"/>
       <c r="C21" s="40" t="s">
         <v>141</v>
       </c>
@@ -15204,8 +15884,8 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="100" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="102" t="s">
         <v>140</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -15237,8 +15917,8 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="100"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="102"/>
       <c r="C23" s="40" t="s">
         <v>136</v>
       </c>
@@ -15268,8 +15948,8 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="100"/>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="102"/>
       <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
@@ -15299,8 +15979,8 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="100"/>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="102"/>
       <c r="C25" s="40" t="s">
         <v>135</v>
       </c>
@@ -15330,8 +16010,8 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="100" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="102" t="s">
         <v>89</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -15363,8 +16043,8 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="100"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="102"/>
       <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
@@ -15394,8 +16074,8 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="100"/>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="102"/>
       <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
@@ -15425,8 +16105,8 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="100"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="102"/>
       <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
@@ -15456,8 +16136,8 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="100"/>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="102"/>
       <c r="C30" s="5" t="s">
         <v>30</v>
       </c>
@@ -15487,8 +16167,8 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="100"/>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="102"/>
       <c r="C31" s="5" t="s">
         <v>31</v>
       </c>
@@ -15518,8 +16198,8 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="100"/>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="102"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
@@ -15549,8 +16229,8 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="100"/>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="102"/>
       <c r="C33" s="5" t="s">
         <v>33</v>
       </c>
@@ -15580,8 +16260,8 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="2:16">
-      <c r="B34" s="100"/>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="102"/>
       <c r="C34" s="5" t="s">
         <v>34</v>
       </c>
@@ -15611,8 +16291,8 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="2:16">
-      <c r="B35" s="100" t="s">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="102" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -15644,8 +16324,8 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="100"/>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="102"/>
       <c r="C36" s="5" t="s">
         <v>27</v>
       </c>
@@ -15675,8 +16355,8 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="100"/>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="102"/>
       <c r="C37" s="5" t="s">
         <v>28</v>
       </c>
@@ -15706,8 +16386,8 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="100"/>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="102"/>
       <c r="C38" s="5" t="s">
         <v>29</v>
       </c>
@@ -15737,8 +16417,8 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="2:16">
-      <c r="B39" s="100"/>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="102"/>
       <c r="C39" s="5" t="s">
         <v>30</v>
       </c>
@@ -15768,8 +16448,8 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="2:16">
-      <c r="B40" s="100"/>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="102"/>
       <c r="C40" s="5" t="s">
         <v>31</v>
       </c>
@@ -15799,8 +16479,8 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="100"/>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="102"/>
       <c r="C41" s="5" t="s">
         <v>32</v>
       </c>
@@ -15830,8 +16510,8 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="2:16">
-      <c r="B42" s="100"/>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="102"/>
       <c r="C42" s="5" t="s">
         <v>33</v>
       </c>
@@ -15861,8 +16541,8 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="100"/>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="102"/>
       <c r="C43" s="5" t="s">
         <v>34</v>
       </c>
@@ -15892,8 +16572,8 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="2:16">
-      <c r="B44" s="100"/>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="102"/>
       <c r="C44" s="5" t="s">
         <v>35</v>
       </c>

--- a/doc/TimeLog.xlsx
+++ b/doc/TimeLog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="96" windowWidth="20736" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="195" yWindow="90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="EVM" sheetId="6" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="time log" sheetId="4" r:id="rId3"/>
     <sheet name="WBS_old" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="350">
   <si>
     <t xml:space="preserve">Stage </t>
   </si>
@@ -801,10 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test(18pt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Each Module Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1344,13 +1340,61 @@
   </si>
   <si>
     <t>all integration test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Architecture Design Doc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration test #1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration test #2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration test #3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration test #4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test(10pt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Document(8pt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doc. structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make doc &amp; integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd&quot;/&quot;yy;@"/>
     <numFmt numFmtId="177" formatCode="yy&quot;-&quot;m&quot;-&quot;d\ h:mm;@"/>
@@ -1358,7 +1402,7 @@
     <numFmt numFmtId="179" formatCode="mm&quot;/&quot;dd"/>
     <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,7 +1504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1557,6 +1601,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1567,7 +1642,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1803,12 +1878,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1829,57 +1955,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1894,6 +1969,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1912,12 +1996,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2223,9 +2319,31 @@
                 <c:pt idx="40">
                   <c:v>609</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>793</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2562,14 +2680,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100562048"/>
-        <c:axId val="100563584"/>
+        <c:smooth val="0"/>
+        <c:axId val="139748864"/>
+        <c:axId val="139750400"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -2875,45 +3003,81 @@
                 <c:pt idx="40">
                   <c:v>423.36</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>423.36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>423.36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>458.64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>470.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>493.92</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100579200"/>
-        <c:axId val="100577664"/>
+        <c:smooth val="0"/>
+        <c:axId val="139778304"/>
+        <c:axId val="139776768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100562048"/>
+        <c:axId val="139748864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;/&quot;dd" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100563584"/>
+        <c:crossAx val="139750400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100563584"/>
+        <c:axId val="139750400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100562048"/>
+        <c:crossAx val="139748864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100577664"/>
+        <c:axId val="139776768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2922,21 +3086,25 @@
         <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="100579200"/>
+        <c:crossAx val="139778304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="100579200"/>
+        <c:axId val="139778304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;/&quot;dd" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="100577664"/>
+        <c:crossAx val="139776768"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2946,9 +3114,11 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3169,6 +3339,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3203,6 +3374,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3378,66 +3550,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
       <c r="E1" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F1" s="76"/>
       <c r="G1" s="76"/>
       <c r="H1" s="76"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="76"/>
       <c r="B2" s="69" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" s="69" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="61">
         <v>42131</v>
       </c>
@@ -3467,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="61">
         <v>42132</v>
       </c>
@@ -3485,19 +3657,19 @@
         <v>12</v>
       </c>
       <c r="F4" s="28">
-        <f t="shared" ref="F4:F43" si="1">F3+C4</f>
+        <f t="shared" ref="F4:F44" si="1">F3+C4</f>
         <v>12</v>
       </c>
       <c r="G4" s="73">
-        <f t="shared" ref="G4:G43" si="2">$E$52*H4/100</f>
+        <f t="shared" ref="G4:G44" si="2">$E$52*H4/100</f>
         <v>0</v>
       </c>
       <c r="H4" s="28">
-        <f t="shared" ref="H4:H43" si="3">H3+D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <f t="shared" ref="H4:H44" si="3">H3+D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="61">
         <v>42133</v>
       </c>
@@ -3527,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="61">
         <v>42134</v>
       </c>
@@ -3557,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="61">
         <v>42135</v>
       </c>
@@ -3587,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="61">
         <v>42136</v>
       </c>
@@ -3617,7 +3789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="61">
         <v>42137</v>
       </c>
@@ -3647,7 +3819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="61">
         <v>42138</v>
       </c>
@@ -3677,7 +3849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="61">
         <v>42139</v>
       </c>
@@ -3707,7 +3879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="61">
         <v>42140</v>
       </c>
@@ -3737,7 +3909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="61">
         <v>42141</v>
       </c>
@@ -3767,7 +3939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="61">
         <v>42142</v>
       </c>
@@ -3797,7 +3969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="61">
         <v>42143</v>
       </c>
@@ -3827,7 +3999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="61">
         <v>42144</v>
       </c>
@@ -3857,7 +4029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="61">
         <v>42145</v>
       </c>
@@ -3887,7 +4059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="61">
         <v>42146</v>
       </c>
@@ -3917,7 +4089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="61">
         <v>42147</v>
       </c>
@@ -3947,7 +4119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="61">
         <v>42148</v>
       </c>
@@ -3977,7 +4149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="61">
         <v>42149</v>
       </c>
@@ -4007,7 +4179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="61">
         <v>42150</v>
       </c>
@@ -4037,7 +4209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="61">
         <v>42151</v>
       </c>
@@ -4067,7 +4239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="61">
         <v>42152</v>
       </c>
@@ -4097,7 +4269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="61">
         <v>42153</v>
       </c>
@@ -4127,7 +4299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="61">
         <v>42154</v>
       </c>
@@ -4157,7 +4329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="61">
         <v>42155</v>
       </c>
@@ -4187,7 +4359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="61">
         <v>42156</v>
       </c>
@@ -4217,7 +4389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="61">
         <v>42157</v>
       </c>
@@ -4247,7 +4419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="61">
         <v>42158</v>
       </c>
@@ -4277,7 +4449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="61">
         <v>42159</v>
       </c>
@@ -4307,7 +4479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="61">
         <v>42160</v>
       </c>
@@ -4337,7 +4509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="61">
         <v>42161</v>
       </c>
@@ -4367,7 +4539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="61">
         <v>42162</v>
       </c>
@@ -4397,7 +4569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="61">
         <v>42163</v>
       </c>
@@ -4427,7 +4599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="61">
         <v>42164</v>
       </c>
@@ -4457,7 +4629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="61">
         <v>42165</v>
       </c>
@@ -4487,7 +4659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="61">
         <v>42166</v>
       </c>
@@ -4517,7 +4689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="61">
         <v>42167</v>
       </c>
@@ -4547,7 +4719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="61">
         <v>42168</v>
       </c>
@@ -4577,7 +4749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="61">
         <v>42169</v>
       </c>
@@ -4607,7 +4779,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="61">
         <v>42170</v>
       </c>
@@ -4637,7 +4809,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="61">
         <v>42171</v>
       </c>
@@ -4667,126 +4839,213 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="61">
         <v>42172</v>
       </c>
       <c r="B44" s="28">
         <v>24</v>
       </c>
-      <c r="C44" s="28"/>
+      <c r="C44" s="28">
+        <v>46</v>
+      </c>
       <c r="D44" s="28"/>
       <c r="E44" s="28">
         <f t="shared" si="4"/>
         <v>444</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="F44" s="28">
+        <f t="shared" si="1"/>
+        <v>655</v>
+      </c>
+      <c r="G44" s="73">
+        <f t="shared" si="2"/>
+        <v>423.36</v>
+      </c>
+      <c r="H44" s="28">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="61">
         <v>42173</v>
       </c>
       <c r="B45" s="28">
         <v>24</v>
       </c>
-      <c r="C45" s="28"/>
+      <c r="C45" s="28">
+        <v>0</v>
+      </c>
       <c r="D45" s="28"/>
       <c r="E45" s="28">
         <f t="shared" si="4"/>
         <v>468</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="F45" s="28">
+        <f t="shared" ref="F45:F50" si="5">F44+C45</f>
+        <v>655</v>
+      </c>
+      <c r="G45" s="73">
+        <f t="shared" ref="G45:G50" si="6">$E$52*H45/100</f>
+        <v>423.36</v>
+      </c>
+      <c r="H45" s="28">
+        <f t="shared" ref="H45:H50" si="7">H44+D45</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="61">
         <v>42174</v>
       </c>
       <c r="B46" s="28">
         <v>24</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="28">
+        <v>30</v>
+      </c>
+      <c r="D46" s="28">
+        <v>3</v>
+      </c>
       <c r="E46" s="28">
         <f t="shared" si="4"/>
         <v>492</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="F46" s="28">
+        <f t="shared" si="5"/>
+        <v>685</v>
+      </c>
+      <c r="G46" s="73">
+        <f t="shared" si="6"/>
+        <v>441</v>
+      </c>
+      <c r="H46" s="28">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="61">
         <v>42175</v>
       </c>
       <c r="B47" s="28">
         <v>0</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="28">
+        <v>24</v>
+      </c>
+      <c r="D47" s="28">
+        <v>3</v>
+      </c>
       <c r="E47" s="28">
         <f t="shared" si="4"/>
         <v>492</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="F47" s="28">
+        <f t="shared" si="5"/>
+        <v>709</v>
+      </c>
+      <c r="G47" s="73">
+        <f t="shared" si="6"/>
+        <v>458.64</v>
+      </c>
+      <c r="H47" s="28">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="61">
         <v>42176</v>
       </c>
       <c r="B48" s="28">
         <v>0</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="28">
+        <v>18</v>
+      </c>
+      <c r="D48" s="28">
+        <v>2</v>
+      </c>
       <c r="E48" s="28">
         <f t="shared" si="4"/>
         <v>492</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="F48" s="28">
+        <f t="shared" si="5"/>
+        <v>727</v>
+      </c>
+      <c r="G48" s="73">
+        <f t="shared" si="6"/>
+        <v>470.4</v>
+      </c>
+      <c r="H48" s="28">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="61">
         <v>42177</v>
       </c>
       <c r="B49" s="28">
         <v>24</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="28">
+        <v>18</v>
+      </c>
+      <c r="D49" s="28">
+        <v>0</v>
+      </c>
       <c r="E49" s="28">
         <f t="shared" si="4"/>
         <v>516</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="F49" s="28">
+        <f t="shared" si="5"/>
+        <v>745</v>
+      </c>
+      <c r="G49" s="73">
+        <f t="shared" si="6"/>
+        <v>470.4</v>
+      </c>
+      <c r="H49" s="28">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="61">
         <v>42178</v>
       </c>
       <c r="B50" s="28">
         <v>24</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="28">
+        <v>48</v>
+      </c>
+      <c r="D50" s="28">
+        <v>4</v>
+      </c>
       <c r="E50" s="28">
         <f t="shared" si="4"/>
         <v>540</v>
       </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="F50" s="28">
+        <f t="shared" si="5"/>
+        <v>793</v>
+      </c>
+      <c r="G50" s="73">
+        <f t="shared" si="6"/>
+        <v>493.92</v>
+      </c>
+      <c r="H50" s="28">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="61">
         <v>42179</v>
       </c>
@@ -4803,7 +5062,7 @@
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="61">
         <v>42180</v>
       </c>
@@ -4834,66 +5093,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H83" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" customWidth="1"/>
-    <col min="3" max="3" width="40.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.799999999999997">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="28">
         <v>1</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2" s="61">
         <v>42136</v>
@@ -4902,18 +5161,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="64"/>
       <c r="B3" s="64"/>
       <c r="C3" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="28">
         <v>1</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G3" s="61">
         <v>42131</v>
@@ -4922,18 +5181,18 @@
         <v>42137</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="28">
         <v>1</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G4" s="61">
         <v>42136</v>
@@ -4942,18 +5201,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="64"/>
       <c r="B5" s="64"/>
       <c r="C5" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="28">
         <v>1</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" s="61">
         <v>42136</v>
@@ -4962,18 +5221,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="64"/>
       <c r="B6" s="63"/>
       <c r="C6" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="28">
         <v>1</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G6" s="61">
         <v>42136</v>
@@ -4982,22 +5241,22 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="64"/>
       <c r="B7" s="65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="28">
         <v>1</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" s="61">
         <v>42136</v>
@@ -5006,18 +5265,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="63"/>
       <c r="D8" s="62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" s="28">
         <v>2</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G8" s="61">
         <v>42136</v>
@@ -5026,18 +5285,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="28">
         <v>1</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" s="61">
         <v>42136</v>
@@ -5046,18 +5305,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
       <c r="C10" s="62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="28">
         <v>1</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G10" s="61">
         <v>42136</v>
@@ -5066,18 +5325,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="64"/>
       <c r="B11" s="64"/>
       <c r="C11" s="62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="28">
         <v>3</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G11" s="61">
         <v>42136</v>
@@ -5086,18 +5345,18 @@
         <v>42138</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
       <c r="B12" s="64"/>
       <c r="C12" s="62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="28">
         <v>1</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G12" s="61">
         <v>42136</v>
@@ -5106,18 +5365,18 @@
         <v>42136</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="28">
         <v>2</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G13" s="61">
         <v>42148</v>
@@ -5126,20 +5385,20 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G14" s="61">
         <v>42152</v>
@@ -5148,18 +5407,18 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
       <c r="D15" s="62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G15" s="61">
         <v>42157</v>
@@ -5168,18 +5427,18 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
       <c r="D16" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E16" s="28">
         <v>1</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G16" s="61">
         <v>42157</v>
@@ -5188,22 +5447,22 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="64"/>
       <c r="B17" s="65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17" s="28">
         <v>3</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G17" s="61">
         <v>42149</v>
@@ -5212,18 +5471,18 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="67"/>
       <c r="D18" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G18" s="61">
         <v>42158</v>
@@ -5232,18 +5491,18 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
       <c r="C19" s="63"/>
       <c r="D19" s="62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="28">
         <v>3</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="61">
         <v>42153</v>
@@ -5252,20 +5511,20 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E20" s="28">
         <v>3</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G20" s="61">
         <v>42160</v>
@@ -5274,18 +5533,18 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
       <c r="D21" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E21" s="28">
         <v>3</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G21" s="61">
         <v>42164</v>
@@ -5294,18 +5553,18 @@
         <v>42164</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="63"/>
       <c r="D22" s="62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="28">
         <v>2</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G22" s="61">
         <v>42162</v>
@@ -5314,20 +5573,20 @@
         <v>42162</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E23" s="28">
         <v>2</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G23" s="61">
         <v>42164</v>
@@ -5336,18 +5595,18 @@
         <v>42164</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
       <c r="D24" s="62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="61">
         <v>42165</v>
@@ -5356,22 +5615,22 @@
         <v>42165</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="B25" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" s="28">
         <v>1</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G25" s="61">
         <v>42163</v>
@@ -5380,18 +5639,18 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E26" s="28">
         <v>1</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G26" s="61">
         <v>42168</v>
@@ -5400,18 +5659,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="63"/>
       <c r="D27" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E27" s="28">
         <v>1</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G27" s="61">
         <v>42168</v>
@@ -5420,20 +5679,20 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E28" s="28">
         <v>1</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G28" s="61">
         <v>42168</v>
@@ -5442,18 +5701,18 @@
         <v>42169</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="63"/>
       <c r="D29" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E29" s="28">
         <v>0</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G29" s="61">
         <v>42168</v>
@@ -5462,58 +5721,62 @@
         <v>42169</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
       <c r="B30" s="64"/>
       <c r="C30" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E30" s="28">
         <v>1</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G30" s="61">
         <v>42169</v>
       </c>
-      <c r="H30" s="61"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="61">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="B31" s="64"/>
       <c r="C31" s="63"/>
       <c r="D31" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E31" s="28">
         <v>0</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G31" s="61">
         <v>42169</v>
       </c>
-      <c r="H31" s="61"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="61">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E32" s="28">
         <v>0</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G32" s="61">
         <v>42163</v>
@@ -5522,18 +5785,18 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
       <c r="D33" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E33" s="28">
         <v>1</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G33" s="61">
         <v>42163</v>
@@ -5542,18 +5805,18 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="64"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
       <c r="D34" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G34" s="61">
         <v>42165</v>
@@ -5562,18 +5825,18 @@
         <v>42165</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="64"/>
       <c r="B35" s="64"/>
       <c r="C35" s="63"/>
       <c r="D35" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E35" s="28">
         <v>1</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G35" s="61">
         <v>42168</v>
@@ -5582,20 +5845,20 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
       <c r="B36" s="64"/>
       <c r="C36" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="28">
         <v>1</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G36" s="61">
         <v>42168</v>
@@ -5604,18 +5867,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
       <c r="D37" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G37" s="61">
         <v>42168</v>
@@ -5624,18 +5887,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
       <c r="D38" s="62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E38" s="28">
         <v>1</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G38" s="61">
         <v>42170</v>
@@ -5644,18 +5907,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
       <c r="D39" s="62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E39" s="28">
         <v>1</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G39" s="61">
         <v>42170</v>
@@ -5664,18 +5927,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
       <c r="B40" s="64"/>
       <c r="C40" s="63"/>
       <c r="D40" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E40" s="28">
         <v>1</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G40" s="61">
         <v>42170</v>
@@ -5684,20 +5947,20 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
       <c r="B41" s="64"/>
       <c r="C41" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E41" s="28">
         <v>1</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G41" s="61">
         <v>42168</v>
@@ -5706,18 +5969,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="64"/>
       <c r="B42" s="64"/>
       <c r="C42" s="64"/>
       <c r="D42" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E42" s="28">
         <v>1</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G42" s="61">
         <v>42168</v>
@@ -5726,18 +5989,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="64"/>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
       <c r="D43" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E43" s="28">
         <v>1</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G43" s="61">
         <v>42170</v>
@@ -5746,18 +6009,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="64"/>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
       <c r="D44" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E44" s="28">
         <v>1</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G44" s="61">
         <v>42170</v>
@@ -5766,38 +6029,40 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
       <c r="B45" s="64"/>
       <c r="C45" s="63"/>
       <c r="D45" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45" s="28">
         <v>1</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G45" s="61">
         <v>42171</v>
       </c>
-      <c r="H45" s="61"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" s="61">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
       <c r="C46" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="28">
         <v>1</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G46" s="61">
         <v>42168</v>
@@ -5806,18 +6071,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="64"/>
       <c r="B47" s="64"/>
       <c r="C47" s="64"/>
       <c r="D47" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E47" s="28">
         <v>1</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G47" s="61">
         <v>42168</v>
@@ -5826,54 +6091,58 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
       <c r="D48" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E48" s="28">
         <v>1</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G48" s="61">
         <v>42170</v>
       </c>
-      <c r="H48" s="61"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48" s="61">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
       <c r="D49" s="62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E49" s="28">
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G49" s="61">
         <v>42170</v>
       </c>
-      <c r="H49" s="61"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49" s="61">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="64"/>
       <c r="B50" s="64"/>
       <c r="C50" s="63"/>
       <c r="D50" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E50" s="28">
         <v>1</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G50" s="61">
         <v>42170</v>
@@ -5882,20 +6151,20 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="64"/>
       <c r="B51" s="64"/>
       <c r="C51" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="28">
         <v>1</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G51" s="61">
         <v>42168</v>
@@ -5904,18 +6173,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
       <c r="D52" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E52" s="28">
         <v>1</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G52" s="61">
         <v>42168</v>
@@ -5924,18 +6193,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="64"/>
       <c r="B53" s="64"/>
       <c r="C53" s="64"/>
       <c r="D53" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E53" s="28">
         <v>1</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G53" s="61">
         <v>42168</v>
@@ -5944,54 +6213,58 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="64"/>
       <c r="B54" s="64"/>
       <c r="C54" s="64"/>
       <c r="D54" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="28">
         <v>1</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G54" s="61">
         <v>42171</v>
       </c>
-      <c r="H54" s="61"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="61">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="64"/>
       <c r="B55" s="64"/>
       <c r="C55" s="64"/>
       <c r="D55" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E55" s="28">
         <v>0</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G55" s="61">
         <v>42171</v>
       </c>
-      <c r="H55" s="61"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55" s="61">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="64"/>
       <c r="B56" s="64"/>
       <c r="C56" s="63"/>
       <c r="D56" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E56" s="28">
         <v>1</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G56" s="61">
         <v>42168</v>
@@ -6000,20 +6273,20 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="64"/>
       <c r="B57" s="64"/>
       <c r="C57" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E57" s="28">
         <v>1</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G57" s="61">
         <v>42168</v>
@@ -6022,18 +6295,18 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="64"/>
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
       <c r="D58" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E58" s="28">
         <v>1</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G58" s="61">
         <v>42168</v>
@@ -6042,18 +6315,18 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="64"/>
       <c r="B59" s="64"/>
       <c r="C59" s="63"/>
       <c r="D59" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E59" s="28">
         <v>1</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G59" s="61">
         <v>42168</v>
@@ -6062,20 +6335,20 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="64"/>
       <c r="B60" s="64"/>
       <c r="C60" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E60" s="28">
         <v>1</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G60" s="61">
         <v>42168</v>
@@ -6084,18 +6357,18 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="64"/>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
       <c r="D61" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E61" s="28">
         <v>0</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G61" s="61">
         <v>42168</v>
@@ -6104,18 +6377,18 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="64"/>
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
       <c r="D62" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E62" s="28">
         <v>0</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G62" s="61">
         <v>42168</v>
@@ -6124,18 +6397,18 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="64"/>
       <c r="B63" s="64"/>
       <c r="C63" s="63"/>
       <c r="D63" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E63" s="28">
         <v>1</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G63" s="61">
         <v>42168</v>
@@ -6144,20 +6417,20 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="64"/>
       <c r="B64" s="64"/>
       <c r="C64" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D64" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E64" s="28">
         <v>1</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G64" s="61">
         <v>42168</v>
@@ -6166,18 +6439,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="64"/>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
       <c r="D65" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E65" s="28">
         <v>1</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G65" s="61">
         <v>42168</v>
@@ -6186,18 +6459,18 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="64"/>
       <c r="B66" s="64"/>
       <c r="C66" s="64"/>
       <c r="D66" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E66" s="28">
         <v>1</v>
       </c>
       <c r="F66" s="72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G66" s="61">
         <v>42165</v>
@@ -6206,36 +6479,38 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="64"/>
       <c r="B67" s="64"/>
       <c r="C67" s="64"/>
       <c r="D67" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E67" s="28">
         <v>1</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G67" s="61">
         <v>42168</v>
       </c>
-      <c r="H67" s="61"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="61">
+        <v>42175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="64"/>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
       <c r="D68" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E68" s="28">
         <v>1</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G68" s="61">
         <v>42168</v>
@@ -6244,36 +6519,36 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="64"/>
       <c r="B69" s="64"/>
       <c r="C69" s="64"/>
       <c r="D69" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E69" s="28">
         <v>0</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G69" s="61">
         <v>42168</v>
       </c>
       <c r="H69" s="61"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="64"/>
       <c r="B70" s="64"/>
       <c r="C70" s="63"/>
       <c r="D70" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E70" s="28">
         <v>1</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G70" s="61">
         <v>42170</v>
@@ -6282,88 +6557,88 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="64"/>
       <c r="B71" s="64"/>
       <c r="C71" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E71" s="28">
         <v>1</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G71" s="61"/>
       <c r="H71" s="61"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="64"/>
       <c r="B72" s="64"/>
       <c r="C72" s="64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E72" s="28">
         <v>0</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G72" s="61"/>
       <c r="H72" s="61"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="64"/>
       <c r="B73" s="64"/>
       <c r="C73" s="64"/>
       <c r="D73" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E73" s="28">
         <v>0</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G73" s="61"/>
       <c r="H73" s="61"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="64"/>
       <c r="B74" s="64"/>
       <c r="C74" s="63"/>
       <c r="D74" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74" s="28">
         <v>1</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G74" s="61"/>
       <c r="H74" s="61"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="64"/>
       <c r="B75" s="64"/>
       <c r="C75" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E75" s="28">
         <v>1</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G75" s="61">
         <v>42168</v>
@@ -6372,18 +6647,18 @@
         <v>42169</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="64"/>
       <c r="B76" s="64"/>
       <c r="C76" s="64"/>
       <c r="D76" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E76" s="28">
         <v>0</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G76" s="61">
         <v>42168</v>
@@ -6392,18 +6667,18 @@
         <v>42169</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="64"/>
       <c r="B77" s="64"/>
       <c r="C77" s="64"/>
       <c r="D77" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E77" s="28">
         <v>0</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G77" s="61">
         <v>42168</v>
@@ -6412,18 +6687,18 @@
         <v>42169</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="64"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E78" s="28">
         <v>1</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G78" s="61">
         <v>42168</v>
@@ -6432,17 +6707,165 @@
         <v>42169</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="63"/>
-      <c r="B79" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="109"/>
+      <c r="B79" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="C79" s="65"/>
+      <c r="D79" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="E79" s="28">
+        <v>2</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G79" s="61">
+        <v>42175</v>
+      </c>
+      <c r="H79" s="61">
+        <v>42175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="109"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="E80" s="28">
+        <v>2</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G80" s="61">
+        <v>42176</v>
+      </c>
+      <c r="H80" s="61">
+        <v>42176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="109"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="E81" s="28">
+        <v>2</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G81" s="61">
+        <v>42178</v>
+      </c>
+      <c r="H81" s="61">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="110"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="E82" s="28">
+        <v>2</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="109"/>
+      <c r="B83" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="D83" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E83" s="28">
+        <v>1</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G83" s="61">
+        <v>42178</v>
+      </c>
+      <c r="H83" s="61">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="109"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="E84" s="28">
+        <v>3</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G84" s="61">
+        <v>42178</v>
+      </c>
+      <c r="H84" s="61"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="111"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="D85" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E85" s="28">
+        <v>1</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G85" s="61">
+        <v>42174</v>
+      </c>
+      <c r="H85" s="61">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="110"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="E86" s="28">
+        <v>3</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G86" s="61">
+        <v>42175</v>
+      </c>
+      <c r="H86" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6452,83 +6875,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Y148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9:Y138"/>
+    <sheetView topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P135" sqref="P135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.5" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.09765625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.125" style="36" customWidth="1"/>
     <col min="18" max="18" width="80.5" customWidth="1"/>
-    <col min="19" max="24" width="2.59765625" customWidth="1"/>
-    <col min="25" max="25" width="3.09765625" customWidth="1"/>
+    <col min="19" max="24" width="2.625" customWidth="1"/>
+    <col min="25" max="25" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25">
+    <row r="1" spans="3:25" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="3:25">
-      <c r="C3" s="95" t="s">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C3" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="93" t="s">
+      <c r="G3" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="102" t="s">
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="83" t="s">
         <v>118</v>
       </c>
       <c r="R3" s="17"/>
     </row>
-    <row r="4" spans="3:25">
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
       <c r="J4" s="43" t="s">
         <v>159</v>
       </c>
@@ -6550,7 +6973,7 @@
       <c r="P4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="103"/>
+      <c r="Q4" s="84"/>
       <c r="R4" s="17"/>
       <c r="S4" s="53" t="s">
         <v>150</v>
@@ -6574,7 +6997,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="3:25" ht="19.2" customHeight="1">
+    <row r="5" spans="3:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="15">
         <v>42131.75</v>
       </c>
@@ -6649,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:25">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C6" s="77">
         <v>42134</v>
       </c>
@@ -6692,35 +7115,35 @@
       <c r="Q6" s="33"/>
       <c r="R6" s="17"/>
       <c r="S6" s="28">
-        <f t="shared" ref="S6:S69" si="6">IF($I6="total",J6,0)</f>
+        <f t="shared" ref="S6:S9" si="6">IF($I6="total",J6,0)</f>
         <v>2</v>
       </c>
       <c r="T6" s="28">
-        <f t="shared" ref="T6:T69" si="7">IF($I6="total",K6,0)</f>
+        <f t="shared" ref="T6:T9" si="7">IF($I6="total",K6,0)</f>
         <v>2</v>
       </c>
       <c r="U6" s="28">
-        <f t="shared" ref="U6:U69" si="8">IF($I6="total",L6,0)</f>
+        <f t="shared" ref="U6:U9" si="8">IF($I6="total",L6,0)</f>
         <v>2</v>
       </c>
       <c r="V6" s="28">
-        <f t="shared" ref="V6:V69" si="9">IF($I6="total",M6,0)</f>
+        <f t="shared" ref="V6:V9" si="9">IF($I6="total",M6,0)</f>
         <v>2</v>
       </c>
       <c r="W6" s="28">
-        <f t="shared" ref="W6:W69" si="10">IF($I6="total",N6,0)</f>
+        <f t="shared" ref="W6:W9" si="10">IF($I6="total",N6,0)</f>
         <v>2</v>
       </c>
       <c r="X6" s="28">
-        <f t="shared" ref="X6:X69" si="11">IF($I6="total",O6,0)</f>
+        <f t="shared" ref="X6:X9" si="11">IF($I6="total",O6,0)</f>
         <v>2</v>
       </c>
       <c r="Y6" s="28">
-        <f t="shared" ref="Y6:Y69" si="12">IF($I6="total",P6,0)</f>
+        <f t="shared" ref="Y6:Y9" si="12">IF($I6="total",P6,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:25">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C7" s="15">
         <v>42134.75</v>
       </c>
@@ -6795,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:25">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C8" s="77"/>
       <c r="D8" s="77"/>
       <c r="E8" s="77"/>
@@ -6864,17 +7287,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:25">
-      <c r="C9" s="87">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C9" s="89">
         <v>42136.75</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="89">
         <v>42136.916666666664</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="92" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -6939,11 +7362,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:25">
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="5" t="s">
         <v>53</v>
       </c>
@@ -7006,11 +7429,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:25">
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="5" t="s">
         <v>54</v>
       </c>
@@ -7073,11 +7496,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:25">
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
@@ -7140,11 +7563,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:25">
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="5" t="s">
         <v>54</v>
       </c>
@@ -7207,11 +7630,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:25">
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="5" t="s">
         <v>54</v>
       </c>
@@ -7274,11 +7697,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:25">
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="5" t="s">
         <v>54</v>
       </c>
@@ -7341,11 +7764,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:25">
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="5" t="s">
         <v>54</v>
       </c>
@@ -7408,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C17" s="77" t="s">
         <v>176</v>
       </c>
@@ -7479,7 +7902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:25">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C18" s="15">
         <v>42137.75</v>
       </c>
@@ -7556,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:25">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C19" s="77"/>
       <c r="D19" s="77"/>
       <c r="E19" s="77"/>
@@ -7625,17 +8048,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:25">
-      <c r="C20" s="87">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C20" s="89">
         <v>42138.75</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="89">
         <v>42138.833333333336</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="92" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -7700,11 +8123,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:25">
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="10" t="s">
         <v>54</v>
       </c>
@@ -7767,11 +8190,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:25">
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="10" t="s">
         <v>54</v>
       </c>
@@ -7834,11 +8257,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:25">
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="5" t="s">
         <v>54</v>
       </c>
@@ -7901,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:25">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="77"/>
@@ -7970,7 +8393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="3:25">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C25" s="15">
         <v>42142.75</v>
       </c>
@@ -8047,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:25">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
       <c r="E26" s="77"/>
@@ -8116,17 +8539,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:25">
-      <c r="C27" s="87">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C27" s="89">
         <v>42144.708333333336</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="89">
         <v>42144.791666666664</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="78" t="s">
+      <c r="F27" s="92" t="s">
         <v>94</v>
       </c>
       <c r="G27" s="21" t="s">
@@ -8160,7 +8583,7 @@
         <f t="shared" ref="P27:P30" si="26">SUM(J27:O27)</f>
         <v>3</v>
       </c>
-      <c r="Q27" s="97" t="s">
+      <c r="Q27" s="78" t="s">
         <v>121</v>
       </c>
       <c r="R27" s="17"/>
@@ -8193,11 +8616,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:25">
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="21" t="s">
         <v>54</v>
       </c>
@@ -8229,7 +8652,7 @@
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="Q28" s="98"/>
+      <c r="Q28" s="79"/>
       <c r="R28" s="17"/>
       <c r="S28" s="28">
         <f t="shared" si="15"/>
@@ -8260,11 +8683,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:25">
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="10" t="s">
         <v>54</v>
       </c>
@@ -8296,7 +8719,7 @@
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="Q29" s="98"/>
+      <c r="Q29" s="79"/>
       <c r="R29" s="17"/>
       <c r="S29" s="28">
         <f t="shared" si="15"/>
@@ -8327,11 +8750,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:25">
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="21" t="s">
         <v>54</v>
       </c>
@@ -8363,7 +8786,7 @@
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="Q30" s="99"/>
+      <c r="Q30" s="80"/>
       <c r="R30" s="17"/>
       <c r="S30" s="28">
         <f t="shared" si="15"/>
@@ -8394,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:25">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C31" s="77"/>
       <c r="D31" s="77"/>
       <c r="E31" s="77"/>
@@ -8463,7 +8886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="3:25">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C32" s="24">
         <v>42148.854166666664</v>
       </c>
@@ -8538,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:25">
+    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C33" s="77"/>
       <c r="D33" s="77"/>
       <c r="E33" s="77"/>
@@ -8607,17 +9030,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="3:25">
+    <row r="34" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C34" s="24">
         <v>42149.604166666664</v>
       </c>
       <c r="D34" s="24">
         <v>42149.729166666664</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F34" s="92" t="s">
         <v>115</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -8684,15 +9107,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:25">
+    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C35" s="24">
         <v>42149.833333333336</v>
       </c>
       <c r="D35" s="24">
         <v>42149.958333333336</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="12" t="s">
         <v>108</v>
       </c>
@@ -8724,7 +9147,7 @@
         <f t="shared" si="28"/>
         <v>18</v>
       </c>
-      <c r="Q35" s="100" t="s">
+      <c r="Q35" s="81" t="s">
         <v>119</v>
       </c>
       <c r="R35" s="17"/>
@@ -8757,15 +9180,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:25">
+    <row r="36" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C36" s="25">
         <v>42149.958333333336</v>
       </c>
       <c r="D36" s="25">
         <v>42149.5</v>
       </c>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="12" t="s">
         <v>108</v>
       </c>
@@ -8797,7 +9220,7 @@
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="Q36" s="101"/>
+      <c r="Q36" s="82"/>
       <c r="R36" s="17"/>
       <c r="S36" s="28">
         <f t="shared" si="15"/>
@@ -8828,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:25">
+    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C37" s="77"/>
       <c r="D37" s="77"/>
       <c r="E37" s="77"/>
@@ -8897,7 +9320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="3:25">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C38" s="27">
         <v>42151.625</v>
       </c>
@@ -8978,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:25">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
       <c r="E39" s="77"/>
@@ -9047,7 +9470,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="3:25">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C40" s="31">
         <v>42152.833333333336</v>
       </c>
@@ -9126,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:25">
+    <row r="41" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
       <c r="E41" s="77"/>
@@ -9195,7 +9618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="3:25">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C42" s="41">
         <v>42152.583333333336</v>
       </c>
@@ -9272,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:25">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C43" s="41">
         <v>42152.833333333336</v>
       </c>
@@ -9349,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:25">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C44" s="77"/>
       <c r="D44" s="77"/>
       <c r="E44" s="77"/>
@@ -9418,7 +9841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="3:25" ht="31.2">
+    <row r="45" spans="3:25" ht="27" x14ac:dyDescent="0.3">
       <c r="C45" s="41">
         <v>42155.375</v>
       </c>
@@ -9495,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:25">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C46" s="41">
         <v>42155.375</v>
       </c>
@@ -9572,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:25" ht="31.2">
+    <row r="47" spans="3:25" ht="27" x14ac:dyDescent="0.3">
       <c r="C47" s="41">
         <v>42155.375</v>
       </c>
@@ -9649,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:25">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C48" s="41">
         <v>42155.375</v>
       </c>
@@ -9726,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:25">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C49" s="41">
         <v>42155.708333333336</v>
       </c>
@@ -9803,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:25">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C50" s="44">
         <v>42155.8125</v>
       </c>
@@ -9880,11 +10303,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:25" s="52" customFormat="1">
-      <c r="C51" s="81">
+    <row r="51" spans="3:25" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="98">
         <v>42155.854166666664</v>
       </c>
-      <c r="D51" s="81">
+      <c r="D51" s="98">
         <v>42155.9375</v>
       </c>
       <c r="E51" s="45" t="s">
@@ -9893,10 +10316,10 @@
       <c r="F51" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G51" s="84" t="s">
+      <c r="G51" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="H51" s="84" t="s">
+      <c r="H51" s="101" t="s">
         <v>135</v>
       </c>
       <c r="I51" s="48" t="s">
@@ -9955,17 +10378,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:25" s="52" customFormat="1">
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
+    <row r="52" spans="3:25" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
       <c r="E52" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F52" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
       <c r="I52" s="48" t="s">
         <v>167</v>
       </c>
@@ -10022,17 +10445,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:25" s="52" customFormat="1">
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
+    <row r="53" spans="3:25" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
       <c r="E53" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F53" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
       <c r="I53" s="48" t="s">
         <v>168</v>
       </c>
@@ -10089,17 +10512,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:25" s="52" customFormat="1">
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
+    <row r="54" spans="3:25" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
       <c r="E54" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F54" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
       <c r="I54" s="48" t="s">
         <v>169</v>
       </c>
@@ -10156,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:25">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C55" s="77"/>
       <c r="D55" s="77"/>
       <c r="E55" s="77"/>
@@ -10225,7 +10648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="3:25">
+    <row r="56" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C56" s="44">
         <v>42156.8125</v>
       </c>
@@ -10302,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:25">
+    <row r="57" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C57" s="44">
         <v>42156.854166666664</v>
       </c>
@@ -10379,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:25">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C58" s="77"/>
       <c r="D58" s="77"/>
       <c r="E58" s="77"/>
@@ -10448,7 +10871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="3:25">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C59" s="47">
         <v>42157.8125</v>
       </c>
@@ -10525,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:25">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C60" s="77"/>
       <c r="D60" s="77"/>
       <c r="E60" s="77"/>
@@ -10594,7 +11017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="3:25">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C61" s="47">
         <v>42158.520833333336</v>
       </c>
@@ -10605,7 +11028,7 @@
         <v>124</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G61" s="46" t="s">
         <v>126</v>
@@ -10675,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:25">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C62" s="77"/>
       <c r="D62" s="77"/>
       <c r="E62" s="77"/>
@@ -10744,7 +11167,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="3:25">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C63" s="47">
         <v>42160.666666666664</v>
       </c>
@@ -10821,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:25">
+    <row r="64" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C64" s="77"/>
       <c r="D64" s="77"/>
       <c r="E64" s="77"/>
@@ -10890,7 +11313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="3:25">
+    <row r="65" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C65" s="47">
         <v>42162.375</v>
       </c>
@@ -10965,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:25">
+    <row r="66" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C66" s="47">
         <v>42162.375</v>
       </c>
@@ -11040,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:25">
+    <row r="67" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C67" s="47">
         <v>42162.375</v>
       </c>
@@ -11115,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:25">
+    <row r="68" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C68" s="47">
         <v>42162.375</v>
       </c>
@@ -11190,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:25">
+    <row r="69" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C69" s="47">
         <v>42162.375</v>
       </c>
@@ -11265,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:25">
+    <row r="70" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C70" s="47">
         <v>42162.375</v>
       </c>
@@ -11340,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:25">
+    <row r="71" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C71" s="77"/>
       <c r="D71" s="77"/>
       <c r="E71" s="77"/>
@@ -11409,7 +11832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="3:25" ht="31.2">
+    <row r="72" spans="3:25" ht="27" x14ac:dyDescent="0.3">
       <c r="C72" s="47">
         <v>42163.583333333336</v>
       </c>
@@ -11426,7 +11849,7 @@
         <v>182</v>
       </c>
       <c r="H72" s="75" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>194</v>
@@ -11486,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:25">
+    <row r="73" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C73" s="47">
         <v>42163.666666666664</v>
       </c>
@@ -11561,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:25">
+    <row r="74" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C74" s="77"/>
       <c r="D74" s="77"/>
       <c r="E74" s="77"/>
@@ -11630,7 +12053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="3:25">
+    <row r="75" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C75" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -11707,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:25">
+    <row r="76" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C76" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -11784,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:25">
+    <row r="77" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C77" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -11861,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:25">
+    <row r="78" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C78" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -11938,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:25">
+    <row r="79" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C79" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -12015,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:25">
+    <row r="80" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C80" s="56">
         <v>42163.791666666664</v>
       </c>
@@ -12092,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:25">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C81" s="77"/>
       <c r="D81" s="77"/>
       <c r="E81" s="77"/>
@@ -12161,7 +12584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:25">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C82" s="56">
         <v>42164.583333333336</v>
       </c>
@@ -12236,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:25">
+    <row r="83" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C83" s="56">
         <v>42164.791666666664</v>
       </c>
@@ -12311,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:25">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C84" s="77"/>
       <c r="D84" s="77"/>
       <c r="E84" s="77"/>
@@ -12380,7 +12803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="3:25">
+    <row r="85" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C85" s="59">
         <v>42165.520833333336</v>
       </c>
@@ -12391,7 +12814,7 @@
         <v>124</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G85" s="58" t="s">
         <v>126</v>
@@ -12461,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:25">
+    <row r="86" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C86" s="77"/>
       <c r="D86" s="77"/>
       <c r="E86" s="77"/>
@@ -12530,7 +12953,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="3:25">
+    <row r="87" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C87" s="59">
         <v>42165.625</v>
       </c>
@@ -12550,7 +12973,7 @@
         <v>186</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J87" s="37">
         <v>0</v>
@@ -12605,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:25">
+    <row r="88" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C88" s="77"/>
       <c r="D88" s="77"/>
       <c r="E88" s="77"/>
@@ -12674,7 +13097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="3:25">
+    <row r="89" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C89" s="59">
         <v>42168.375</v>
       </c>
@@ -12688,13 +13111,13 @@
         <v>197</v>
       </c>
       <c r="G89" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H89" s="58" t="s">
         <v>189</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J89" s="37">
         <v>0</v>
@@ -12749,7 +13172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:25">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C90" s="59">
         <v>42168.375</v>
       </c>
@@ -12769,7 +13192,7 @@
         <v>186</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J90" s="37">
         <v>0</v>
@@ -12824,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:25">
+    <row r="91" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C91" s="59">
         <v>42168.375</v>
       </c>
@@ -12844,7 +13267,7 @@
         <v>187</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J91" s="37">
         <v>9</v>
@@ -12899,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:25">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C92" s="59">
         <v>42168.375</v>
       </c>
@@ -12919,7 +13342,7 @@
         <v>198</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J92" s="37">
         <v>0</v>
@@ -12974,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:25">
+    <row r="93" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C93" s="59">
         <v>42168.375</v>
       </c>
@@ -12994,7 +13417,7 @@
         <v>189</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J93" s="37">
         <v>0</v>
@@ -13049,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:25">
+    <row r="94" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C94" s="59">
         <v>42168.375</v>
       </c>
@@ -13069,7 +13492,7 @@
         <v>190</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J94" s="37">
         <v>0</v>
@@ -13124,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:25">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C95" s="77"/>
       <c r="D95" s="77"/>
       <c r="E95" s="77"/>
@@ -13193,7 +13616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="3:25">
+    <row r="96" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C96" s="59">
         <v>42169.375</v>
       </c>
@@ -13213,7 +13636,7 @@
         <v>189</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J96" s="37">
         <v>0</v>
@@ -13268,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:25">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C97" s="59">
         <v>42169.375</v>
       </c>
@@ -13288,7 +13711,7 @@
         <v>186</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J97" s="37">
         <v>0</v>
@@ -13343,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:25">
+    <row r="98" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C98" s="59">
         <v>42169.375</v>
       </c>
@@ -13363,7 +13786,7 @@
         <v>187</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J98" s="37">
         <v>9</v>
@@ -13418,7 +13841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:25">
+    <row r="99" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C99" s="59">
         <v>42169.375</v>
       </c>
@@ -13438,7 +13861,7 @@
         <v>198</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J99" s="37">
         <v>0</v>
@@ -13493,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:25">
+    <row r="100" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C100" s="59">
         <v>42169.375</v>
       </c>
@@ -13513,7 +13936,7 @@
         <v>189</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J100" s="37">
         <v>0</v>
@@ -13568,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:25">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C101" s="59">
         <v>42169.375</v>
       </c>
@@ -13588,7 +14011,7 @@
         <v>190</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J101" s="37">
         <v>0</v>
@@ -13643,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:25">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C102" s="77"/>
       <c r="D102" s="77"/>
       <c r="E102" s="77"/>
@@ -13712,7 +14135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="3:25">
+    <row r="103" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C103" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13732,7 +14155,7 @@
         <v>189</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J103" s="37">
         <v>0</v>
@@ -13787,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:25">
+    <row r="104" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C104" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13807,7 +14230,7 @@
         <v>186</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J104" s="37">
         <v>0</v>
@@ -13862,7 +14285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:25">
+    <row r="105" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C105" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13882,7 +14305,7 @@
         <v>187</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J105" s="37">
         <v>7</v>
@@ -13937,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:25">
+    <row r="106" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C106" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -13957,7 +14380,7 @@
         <v>198</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J106" s="37">
         <v>0</v>
@@ -14012,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:25">
+    <row r="107" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C107" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -14032,7 +14455,7 @@
         <v>189</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J107" s="37">
         <v>0</v>
@@ -14087,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:25">
+    <row r="108" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C108" s="59">
         <v>42170.583333333336</v>
       </c>
@@ -14107,7 +14530,7 @@
         <v>190</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J108" s="37">
         <v>0</v>
@@ -14162,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:25">
+    <row r="109" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C109" s="77"/>
       <c r="D109" s="77"/>
       <c r="E109" s="77"/>
@@ -14231,7 +14654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="3:25">
+    <row r="110" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C110" s="59">
         <v>42171.833333333336</v>
       </c>
@@ -14242,16 +14665,16 @@
         <v>106</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G110" s="58" t="s">
         <v>108</v>
       </c>
       <c r="H110" s="75" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J110" s="37">
         <v>3</v>
@@ -14306,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25">
+    <row r="111" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C111" s="77"/>
       <c r="D111" s="77"/>
       <c r="E111" s="77"/>
@@ -14375,7 +14798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="3:25">
+    <row r="112" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C112" s="74">
         <v>42172.520833333336</v>
       </c>
@@ -14386,16 +14809,16 @@
         <v>124</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G112" s="75" t="s">
         <v>126</v>
       </c>
       <c r="H112" s="75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J112" s="37">
         <f>40/60</f>
@@ -14456,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:25">
+    <row r="113" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
       <c r="E113" s="77"/>
@@ -14525,7 +14948,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="114" spans="3:25">
+    <row r="114" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C114" s="74">
         <v>42903.583333333336</v>
       </c>
@@ -14542,10 +14965,10 @@
         <v>182</v>
       </c>
       <c r="H114" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J114" s="37">
         <v>0</v>
@@ -14600,7 +15023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:25">
+    <row r="115" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C115" s="74">
         <v>42903.583333333336</v>
       </c>
@@ -14675,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:25">
+    <row r="116" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C116" s="77"/>
       <c r="D116" s="77"/>
       <c r="E116" s="77"/>
@@ -14744,7 +15167,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="3:25">
+    <row r="117" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C117" s="74">
         <v>42174.625</v>
       </c>
@@ -14755,16 +15178,16 @@
         <v>106</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G117" s="75" t="s">
         <v>108</v>
       </c>
       <c r="H117" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J117" s="37">
         <v>2</v>
@@ -14819,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:25">
+    <row r="118" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C118" s="74">
         <v>42174.833333333336</v>
       </c>
@@ -14830,10 +15253,10 @@
         <v>106</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H118" s="75" t="s">
         <v>189</v>
@@ -14894,7 +15317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:25">
+    <row r="119" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C119" s="74">
         <v>42174.833333333336</v>
       </c>
@@ -14905,10 +15328,10 @@
         <v>106</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H119" s="75" t="s">
         <v>186</v>
@@ -14969,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:25">
+    <row r="120" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C120" s="74">
         <v>42174.833333333336</v>
       </c>
@@ -14980,10 +15403,10 @@
         <v>106</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H120" s="75" t="s">
         <v>187</v>
@@ -15044,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:25">
+    <row r="121" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C121" s="74">
         <v>42174.833333333336</v>
       </c>
@@ -15055,10 +15478,10 @@
         <v>106</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H121" s="75" t="s">
         <v>198</v>
@@ -15119,7 +15542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:25">
+    <row r="122" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C122" s="74">
         <v>42174.833333333336</v>
       </c>
@@ -15130,10 +15553,10 @@
         <v>106</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H122" s="75" t="s">
         <v>189</v>
@@ -15194,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:25">
+    <row r="123" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C123" s="74">
         <v>42174.833333333336</v>
       </c>
@@ -15205,10 +15628,10 @@
         <v>106</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H123" s="75" t="s">
         <v>190</v>
@@ -15269,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:25">
+    <row r="124" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C124" s="77"/>
       <c r="D124" s="77"/>
       <c r="E124" s="77"/>
@@ -15338,7 +15761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="3:25">
+    <row r="125" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C125" s="74">
         <v>42175.583333333336</v>
       </c>
@@ -15349,13 +15772,13 @@
         <v>106</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H125" s="75" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>182</v>
@@ -15413,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:25">
+    <row r="126" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C126" s="74">
         <v>42175.583333333336</v>
       </c>
@@ -15424,16 +15847,16 @@
         <v>106</v>
       </c>
       <c r="F126" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="H126" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="H126" s="75" t="s">
-        <v>333</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="J126" s="37">
         <v>0</v>
@@ -15488,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:25">
+    <row r="127" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C127" s="77"/>
       <c r="D127" s="77"/>
       <c r="E127" s="77"/>
@@ -15499,31 +15922,31 @@
         <v>42</v>
       </c>
       <c r="J127" s="38">
-        <f>SUM(J125:J126)</f>
+        <f t="shared" ref="J127:O127" si="102">SUM(J125:J126)</f>
         <v>4</v>
       </c>
       <c r="K127" s="38">
-        <f>SUM(K125:K126)</f>
+        <f t="shared" si="102"/>
         <v>4</v>
       </c>
       <c r="L127" s="38">
-        <f>SUM(L125:L126)</f>
+        <f t="shared" si="102"/>
         <v>4</v>
       </c>
       <c r="M127" s="38">
-        <f>SUM(M125:M126)</f>
+        <f t="shared" si="102"/>
         <v>4</v>
       </c>
       <c r="N127" s="38">
-        <f>SUM(N125:N126)</f>
+        <f t="shared" si="102"/>
         <v>4</v>
       </c>
       <c r="O127" s="38">
-        <f>SUM(O125:O126)</f>
+        <f t="shared" si="102"/>
         <v>4</v>
       </c>
       <c r="P127" s="38">
-        <f t="shared" ref="P127:P129" si="102">SUM(J127:O127)</f>
+        <f t="shared" ref="P127:P129" si="103">SUM(J127:O127)</f>
         <v>24</v>
       </c>
       <c r="Q127" s="33"/>
@@ -15557,7 +15980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="3:25">
+    <row r="128" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C128" s="74">
         <v>78700.791666666672</v>
       </c>
@@ -15568,13 +15991,13 @@
         <v>106</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H128" s="75" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>182</v>
@@ -15598,7 +16021,7 @@
         <v>3</v>
       </c>
       <c r="P128" s="37">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>15</v>
       </c>
       <c r="Q128" s="32"/>
@@ -15632,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:25">
+    <row r="129" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C129" s="74">
         <v>78700.791666666672</v>
       </c>
@@ -15643,16 +16066,16 @@
         <v>106</v>
       </c>
       <c r="F129" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="H129" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J129" s="37">
         <v>0</v>
@@ -15673,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="P129" s="37">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>3</v>
       </c>
       <c r="Q129" s="32"/>
@@ -15707,7 +16130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:25">
+    <row r="130" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C130" s="77"/>
       <c r="D130" s="77"/>
       <c r="E130" s="77"/>
@@ -15718,31 +16141,31 @@
         <v>42</v>
       </c>
       <c r="J130" s="38">
-        <f>SUM(J128:J129)</f>
+        <f t="shared" ref="J130:O130" si="104">SUM(J128:J129)</f>
         <v>3</v>
       </c>
       <c r="K130" s="38">
-        <f>SUM(K128:K129)</f>
+        <f t="shared" si="104"/>
         <v>3</v>
       </c>
       <c r="L130" s="38">
-        <f>SUM(L128:L129)</f>
+        <f t="shared" si="104"/>
         <v>3</v>
       </c>
       <c r="M130" s="38">
-        <f>SUM(M128:M129)</f>
+        <f t="shared" si="104"/>
         <v>3</v>
       </c>
       <c r="N130" s="38">
-        <f>SUM(N128:N129)</f>
+        <f t="shared" si="104"/>
         <v>3</v>
       </c>
       <c r="O130" s="38">
-        <f>SUM(O128:O129)</f>
+        <f t="shared" si="104"/>
         <v>3</v>
       </c>
       <c r="P130" s="38">
-        <f t="shared" ref="P130:P131" si="103">SUM(J130:O130)</f>
+        <f t="shared" ref="P130:P131" si="105">SUM(J130:O130)</f>
         <v>18</v>
       </c>
       <c r="Q130" s="33"/>
@@ -15776,7 +16199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="3:25">
+    <row r="131" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C131" s="74">
         <v>78701.833333333328</v>
       </c>
@@ -15787,16 +16210,16 @@
         <v>106</v>
       </c>
       <c r="F131" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="H131" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J131" s="37">
         <v>3</v>
@@ -15817,7 +16240,7 @@
         <v>3</v>
       </c>
       <c r="P131" s="37">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>18</v>
       </c>
       <c r="Q131" s="32"/>
@@ -15851,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:25">
+    <row r="132" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C132" s="77"/>
       <c r="D132" s="77"/>
       <c r="E132" s="77"/>
@@ -15862,31 +16285,31 @@
         <v>42</v>
       </c>
       <c r="J132" s="38">
-        <f>SUM(J131:J131)</f>
+        <f t="shared" ref="J132:O132" si="106">SUM(J131:J131)</f>
         <v>3</v>
       </c>
       <c r="K132" s="38">
-        <f>SUM(K131:K131)</f>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="L132" s="38">
-        <f>SUM(L131:L131)</f>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="M132" s="38">
-        <f>SUM(M131:M131)</f>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="N132" s="38">
-        <f>SUM(N131:N131)</f>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="O132" s="38">
-        <f>SUM(O131:O131)</f>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="P132" s="38">
-        <f t="shared" ref="P132:P135" si="104">SUM(J132:O132)</f>
+        <f t="shared" ref="P132:P135" si="107">SUM(J132:O132)</f>
         <v>18</v>
       </c>
       <c r="Q132" s="33"/>
@@ -15920,7 +16343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="3:25">
+    <row r="133" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C133" s="74">
         <v>78702.666666666672</v>
       </c>
@@ -15931,13 +16354,13 @@
         <v>106</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H133" s="75" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>182</v>
@@ -15961,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="P133" s="37">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>24</v>
       </c>
       <c r="Q133" s="32"/>
@@ -15995,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:25">
+    <row r="134" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C134" s="74">
         <v>78702.666666666672</v>
       </c>
@@ -16006,16 +16429,16 @@
         <v>106</v>
       </c>
       <c r="F134" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G134" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="H134" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J134" s="37">
         <v>0</v>
@@ -16036,7 +16459,7 @@
         <v>8</v>
       </c>
       <c r="P134" s="37">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>24</v>
       </c>
       <c r="Q134" s="32"/>
@@ -16070,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:25">
+    <row r="135" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C135" s="77"/>
       <c r="D135" s="77"/>
       <c r="E135" s="77"/>
@@ -16081,31 +16504,31 @@
         <v>42</v>
       </c>
       <c r="J135" s="38">
-        <f>SUM(J133:J134)</f>
+        <f t="shared" ref="J135:O135" si="108">SUM(J133:J134)</f>
         <v>8</v>
       </c>
       <c r="K135" s="38">
-        <f>SUM(K133:K134)</f>
+        <f t="shared" si="108"/>
         <v>8</v>
       </c>
       <c r="L135" s="38">
-        <f>SUM(L133:L134)</f>
+        <f t="shared" si="108"/>
         <v>8</v>
       </c>
       <c r="M135" s="38">
-        <f>SUM(M133:M134)</f>
+        <f t="shared" si="108"/>
         <v>8</v>
       </c>
       <c r="N135" s="38">
-        <f>SUM(N133:N134)</f>
+        <f t="shared" si="108"/>
         <v>8</v>
       </c>
       <c r="O135" s="38">
-        <f>SUM(O133:O134)</f>
+        <f t="shared" si="108"/>
         <v>8</v>
       </c>
       <c r="P135" s="38">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>48</v>
       </c>
       <c r="Q135" s="33"/>
@@ -16139,7 +16562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="3:25">
+    <row r="136" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C136" s="47"/>
       <c r="D136" s="47"/>
       <c r="E136" s="3"/>
@@ -16188,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:25">
+    <row r="137" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -16237,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:25">
+    <row r="138" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -16258,35 +16681,35 @@
       <c r="Q138" s="32"/>
       <c r="R138" s="17"/>
       <c r="S138" s="28">
-        <f t="shared" ref="S138" si="105">IF($I138="total",J138,0)</f>
+        <f t="shared" ref="S138" si="109">IF($I138="total",J138,0)</f>
         <v>0</v>
       </c>
       <c r="T138" s="28">
-        <f t="shared" ref="T138" si="106">IF($I138="total",K138,0)</f>
+        <f t="shared" ref="T138" si="110">IF($I138="total",K138,0)</f>
         <v>0</v>
       </c>
       <c r="U138" s="28">
-        <f t="shared" ref="U138" si="107">IF($I138="total",L138,0)</f>
+        <f t="shared" ref="U138" si="111">IF($I138="total",L138,0)</f>
         <v>0</v>
       </c>
       <c r="V138" s="28">
-        <f t="shared" ref="V138" si="108">IF($I138="total",M138,0)</f>
+        <f t="shared" ref="V138" si="112">IF($I138="total",M138,0)</f>
         <v>0</v>
       </c>
       <c r="W138" s="28">
-        <f t="shared" ref="W138" si="109">IF($I138="total",N138,0)</f>
+        <f t="shared" ref="W138" si="113">IF($I138="total",N138,0)</f>
         <v>0</v>
       </c>
       <c r="X138" s="28">
-        <f t="shared" ref="X138" si="110">IF($I138="total",O138,0)</f>
+        <f t="shared" ref="X138" si="114">IF($I138="total",O138,0)</f>
         <v>0</v>
       </c>
       <c r="Y138" s="28">
-        <f t="shared" ref="Y138" si="111">IF($I138="total",P138,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="3:25">
+        <f t="shared" ref="Y138" si="115">IF($I138="total",P138,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -16297,27 +16720,27 @@
         <v>114</v>
       </c>
       <c r="J139" s="39">
-        <f t="shared" ref="J139:O139" si="112">SUM(S5:S138)</f>
+        <f t="shared" ref="J139:O139" si="116">SUM(S5:S138)</f>
         <v>137.66666666666669</v>
       </c>
       <c r="K139" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>129.66666666666669</v>
       </c>
       <c r="L139" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>129.66666666666669</v>
       </c>
       <c r="M139" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>136.66666666666669</v>
       </c>
       <c r="N139" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>129.66666666666669</v>
       </c>
       <c r="O139" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>129.66666666666669</v>
       </c>
       <c r="P139" s="39">
@@ -16327,7 +16750,7 @@
       <c r="Q139" s="34"/>
       <c r="R139" s="17"/>
     </row>
-    <row r="140" spans="3:25">
+    <row r="140" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
@@ -16345,7 +16768,7 @@
       <c r="Q140" s="35"/>
       <c r="R140" s="17"/>
     </row>
-    <row r="141" spans="3:25">
+    <row r="141" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
@@ -16363,7 +16786,7 @@
       <c r="Q141" s="35"/>
       <c r="R141" s="17"/>
     </row>
-    <row r="142" spans="3:25">
+    <row r="142" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
@@ -16381,7 +16804,7 @@
       <c r="Q142" s="35"/>
       <c r="R142" s="17"/>
     </row>
-    <row r="143" spans="3:25">
+    <row r="143" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
@@ -16399,7 +16822,7 @@
       <c r="Q143" s="35"/>
       <c r="R143" s="17"/>
     </row>
-    <row r="144" spans="3:25">
+    <row r="144" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
@@ -16417,7 +16840,7 @@
       <c r="Q144" s="35"/>
       <c r="R144" s="17"/>
     </row>
-    <row r="145" spans="3:18">
+    <row r="145" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
@@ -16435,7 +16858,7 @@
       <c r="Q145" s="35"/>
       <c r="R145" s="17"/>
     </row>
-    <row r="146" spans="3:18">
+    <row r="146" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C146" s="19"/>
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
@@ -16453,7 +16876,7 @@
       <c r="Q146" s="35"/>
       <c r="R146" s="17"/>
     </row>
-    <row r="147" spans="3:18">
+    <row r="147" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
       <c r="E147" s="19"/>
@@ -16470,7 +16893,7 @@
       <c r="P147" s="19"/>
       <c r="Q147" s="35"/>
     </row>
-    <row r="148" spans="3:18">
+    <row r="148" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C148" s="19"/>
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
@@ -16489,20 +16912,39 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="C81:H81"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="Q27:Q30"/>
@@ -16519,39 +16961,20 @@
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C130:H130"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -16566,31 +16989,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.09765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
@@ -16621,7 +17044,7 @@
       <c r="O2" s="106"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="107"/>
       <c r="C3" s="107"/>
       <c r="D3" s="108"/>
@@ -16660,7 +17083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="31.2">
+    <row r="4" spans="2:16" ht="27" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
         <v>81</v>
       </c>
@@ -16693,7 +17116,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="104"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -16724,7 +17147,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="104"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -16755,7 +17178,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="104"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -16786,7 +17209,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="104"/>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -16817,7 +17240,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="104"/>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -16848,7 +17271,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="104"/>
       <c r="C10" s="5" t="s">
         <v>14</v>
@@ -16879,7 +17302,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="104"/>
       <c r="C11" s="5" t="s">
         <v>78</v>
@@ -16910,7 +17333,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="104"/>
       <c r="C12" s="5" t="s">
         <v>79</v>
@@ -16941,7 +17364,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="104"/>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -16972,7 +17395,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="104" t="s">
         <v>82</v>
       </c>
@@ -17005,7 +17428,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="104"/>
       <c r="C15" s="5" t="s">
         <v>14</v>
@@ -17036,7 +17459,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="104"/>
       <c r="C16" s="5" t="s">
         <v>16</v>
@@ -17067,7 +17490,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="104"/>
       <c r="C17" s="5" t="s">
         <v>79</v>
@@ -17098,7 +17521,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="104" t="s">
         <v>88</v>
       </c>
@@ -17131,7 +17554,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="104"/>
       <c r="C19" s="22" t="s">
         <v>111</v>
@@ -17162,7 +17585,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="104"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
@@ -17193,7 +17616,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="104"/>
       <c r="C21" s="40" t="s">
         <v>141</v>
@@ -17224,7 +17647,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="104" t="s">
         <v>140</v>
       </c>
@@ -17257,7 +17680,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="104"/>
       <c r="C23" s="40" t="s">
         <v>136</v>
@@ -17288,7 +17711,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="104"/>
       <c r="C24" s="5" t="s">
         <v>22</v>
@@ -17319,7 +17742,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="104"/>
       <c r="C25" s="40" t="s">
         <v>135</v>
@@ -17350,7 +17773,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="104" t="s">
         <v>89</v>
       </c>
@@ -17383,7 +17806,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="104"/>
       <c r="C27" s="5" t="s">
         <v>27</v>
@@ -17414,7 +17837,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="104"/>
       <c r="C28" s="5" t="s">
         <v>28</v>
@@ -17445,7 +17868,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="104"/>
       <c r="C29" s="5" t="s">
         <v>29</v>
@@ -17476,7 +17899,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="104"/>
       <c r="C30" s="5" t="s">
         <v>30</v>
@@ -17507,7 +17930,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="104"/>
       <c r="C31" s="5" t="s">
         <v>31</v>
@@ -17538,7 +17961,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="104"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
@@ -17569,7 +17992,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="104"/>
       <c r="C33" s="5" t="s">
         <v>33</v>
@@ -17600,7 +18023,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="104"/>
       <c r="C34" s="5" t="s">
         <v>34</v>
@@ -17631,7 +18054,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="104" t="s">
         <v>87</v>
       </c>
@@ -17664,7 +18087,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="104"/>
       <c r="C36" s="5" t="s">
         <v>27</v>
@@ -17695,7 +18118,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="104"/>
       <c r="C37" s="5" t="s">
         <v>28</v>
@@ -17726,7 +18149,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="104"/>
       <c r="C38" s="5" t="s">
         <v>29</v>
@@ -17757,7 +18180,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="104"/>
       <c r="C39" s="5" t="s">
         <v>30</v>
@@ -17788,7 +18211,7 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="104"/>
       <c r="C40" s="5" t="s">
         <v>31</v>
@@ -17819,7 +18242,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="104"/>
       <c r="C41" s="5" t="s">
         <v>32</v>
@@ -17850,7 +18273,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="104"/>
       <c r="C42" s="5" t="s">
         <v>33</v>
@@ -17881,7 +18304,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="104"/>
       <c r="C43" s="5" t="s">
         <v>34</v>
@@ -17912,7 +18335,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="104"/>
       <c r="C44" s="5" t="s">
         <v>35</v>

--- a/doc/TimeLog.xlsx
+++ b/doc/TimeLog.xlsx
@@ -1244,10 +1244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="177" formatCode="yy&quot;-&quot;m&quot;-&quot;d\ h:mm;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="yy&quot;-&quot;m&quot;-&quot;d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1529,7 +1529,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,16 +1553,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1574,7 +1574,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1592,19 +1592,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1613,7 +1613,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1622,13 +1622,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,7 +1649,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1658,13 +1658,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1685,7 +1685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1697,19 +1697,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1724,67 +1724,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1808,14 +1760,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1859,10 +1859,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>EVM!$A$3:$A$54</c:f>
+              <c:f>EVM!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>mm"/"dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>42131</c:v>
                 </c:pt>
@@ -2012,19 +2012,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>42180</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EVM!$F$3:$F$54</c:f>
+              <c:f>EVM!$F$3:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2174,9 +2171,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,10 +2195,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>EVM!$A$3:$A$54</c:f>
+              <c:f>EVM!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>mm"/"dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>42131</c:v>
                 </c:pt>
@@ -2354,19 +2348,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>42180</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EVM!$E$3:$E$54</c:f>
+              <c:f>EVM!$E$3:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2518,19 +2509,15 @@
                   <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>612</c:v>
-                </c:pt>
-                <c:pt idx="51">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="105116800"/>
-        <c:axId val="105118336"/>
+        <c:axId val="104560512"/>
+        <c:axId val="104562048"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2553,10 +2540,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>EVM!$A$3:$A$54</c:f>
+              <c:f>EVM!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>mm"/"dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>42131</c:v>
                 </c:pt>
@@ -2706,19 +2693,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>42180</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EVM!$G$3:$G$54</c:f>
+              <c:f>EVM!$G$3:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2867,36 +2851,32 @@
                   <c:v>507.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>507.6</c:v>
-                </c:pt>
-                <c:pt idx="50">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="105596800"/>
-        <c:axId val="105595264"/>
+        <c:axId val="104581760"/>
+        <c:axId val="104580224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105116800"/>
+        <c:axId val="104560512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;/&quot;dd" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105118336"/>
+        <c:crossAx val="104562048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105118336"/>
+        <c:axId val="104562048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -2906,12 +2886,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105116800"/>
+        <c:crossAx val="104560512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105595264"/>
+        <c:axId val="104580224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2921,12 +2901,12 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="105596800"/>
+        <c:crossAx val="104581760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="105596800"/>
+        <c:axId val="104581760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +2914,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;/&quot;dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="105595264"/>
+        <c:crossAx val="104580224"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2960,7 +2940,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2998,53 +2978,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>598080</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>59783</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7940040" y="6964680"/>
-          <a:ext cx="6480720" cy="2376263"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3335,10 +3268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3354,23 +3287,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="75"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="63" t="s">
         <v>22</v>
       </c>
@@ -3415,7 +3348,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="67">
-        <f>$E$54*H3/100</f>
+        <f>$E$53*H3/100</f>
         <v>0</v>
       </c>
       <c r="H3" s="22">
@@ -3445,7 +3378,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="67">
-        <f t="shared" ref="G4:G44" si="2">$E$54*H4/100</f>
+        <f t="shared" ref="G4:G44" si="2">$E$53*H4/100</f>
         <v>0</v>
       </c>
       <c r="H4" s="22">
@@ -4232,8 +4165,8 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="77"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="55">
@@ -4264,8 +4197,8 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="L31" s="104"/>
-      <c r="M31" s="105"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="77"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="55">
@@ -4296,8 +4229,8 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="L32" s="104"/>
-      <c r="M32" s="105"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="77"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="55">
@@ -4328,8 +4261,8 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="L33" s="104"/>
-      <c r="M33" s="105"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="55">
@@ -4360,8 +4293,8 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="L34" s="104"/>
-      <c r="M34" s="105"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="55">
@@ -4392,8 +4325,8 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="L35" s="104"/>
-      <c r="M35" s="105"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="55">
@@ -4424,8 +4357,8 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L36" s="104"/>
-      <c r="M36" s="105"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="77"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="55">
@@ -4456,8 +4389,8 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L37" s="104"/>
-      <c r="M37" s="105"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="77"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="55">
@@ -4488,8 +4421,8 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L38" s="104"/>
-      <c r="M38" s="105"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="77"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="55">
@@ -4520,8 +4453,8 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L39" s="104"/>
-      <c r="M39" s="105"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="55">
@@ -4552,8 +4485,8 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="L40" s="104"/>
-      <c r="M40" s="105"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="77"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="55">
@@ -4584,8 +4517,8 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="L41" s="104"/>
-      <c r="M41" s="105"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="55">
@@ -4616,8 +4549,8 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L42" s="104"/>
-      <c r="M42" s="105"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="77"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="55">
@@ -4648,8 +4581,8 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L43" s="104"/>
-      <c r="M43" s="105"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="77"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="55">
@@ -4680,8 +4613,8 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="L44" s="104"/>
-      <c r="M44" s="105"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="77"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="55">
@@ -4701,19 +4634,19 @@
         <v>468</v>
       </c>
       <c r="F45" s="22">
-        <f t="shared" ref="F45:F50" si="5">F44+C45</f>
+        <f t="shared" ref="F45:F49" si="5">F44+C45</f>
         <v>655</v>
       </c>
       <c r="G45" s="67">
-        <f t="shared" ref="G45:G50" si="6">$E$54*H45/100</f>
+        <f t="shared" ref="G45:G49" si="6">$E$53*H45/100</f>
         <v>428.64</v>
       </c>
       <c r="H45" s="22">
-        <f t="shared" ref="H45:H53" si="7">H44+D45</f>
+        <f t="shared" ref="H45:H52" si="7">H44+D45</f>
         <v>76</v>
       </c>
-      <c r="L45" s="104"/>
-      <c r="M45" s="105"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="77"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="55">
@@ -4744,8 +4677,8 @@
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="L46" s="104"/>
-      <c r="M46" s="105"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="55">
@@ -4776,8 +4709,8 @@
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="L47" s="104"/>
-      <c r="M47" s="105"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="55">
@@ -4808,8 +4741,8 @@
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="L48" s="104"/>
-      <c r="M48" s="105"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="77"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="55">
@@ -4840,8 +4773,8 @@
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="L49" s="104"/>
-      <c r="M49" s="105"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="77"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="55">
@@ -4861,11 +4794,11 @@
         <v>540</v>
       </c>
       <c r="F50" s="22">
-        <f t="shared" ref="F50:F53" si="8">F49+C50</f>
+        <f t="shared" ref="F50:F52" si="8">F49+C50</f>
         <v>793</v>
       </c>
       <c r="G50" s="67">
-        <f t="shared" ref="G50:G53" si="9">$E$54*H50/100</f>
+        <f>$E$53*H50/100</f>
         <v>507.6</v>
       </c>
       <c r="H50" s="22">
@@ -4895,7 +4828,7 @@
         <v>855</v>
       </c>
       <c r="G51" s="67">
-        <f t="shared" si="9"/>
+        <f>$E$53*H51/100</f>
         <v>507.6</v>
       </c>
       <c r="H51" s="22">
@@ -4914,10 +4847,10 @@
         <v>54</v>
       </c>
       <c r="D52" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E52" s="22">
-        <f t="shared" ref="E52:E53" si="10">E51+B52</f>
+        <f t="shared" ref="E52" si="9">E51+B52</f>
         <v>588</v>
       </c>
       <c r="F52" s="22">
@@ -4925,56 +4858,26 @@
         <v>909</v>
       </c>
       <c r="G52" s="67">
-        <f t="shared" si="9"/>
-        <v>507.6</v>
+        <f>$E$53*H52/100</f>
+        <v>564</v>
       </c>
       <c r="H52" s="22">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="55">
-        <v>42181</v>
-      </c>
-      <c r="B53" s="22">
-        <v>24</v>
-      </c>
-      <c r="C53" s="22">
-        <v>60</v>
-      </c>
-      <c r="D53" s="22">
-        <v>10</v>
-      </c>
+      <c r="A53" s="55"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="22">
-        <f t="shared" si="10"/>
-        <v>612</v>
-      </c>
-      <c r="F53" s="22">
-        <f t="shared" si="8"/>
-        <v>969</v>
-      </c>
-      <c r="G53" s="67">
-        <f t="shared" si="9"/>
+        <f>E51+B53</f>
         <v>564</v>
       </c>
-      <c r="H53" s="22">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="55"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22">
-        <f>E51+B54</f>
-        <v>564</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4994,7 +4897,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I86"/>
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6637,7 +6540,7 @@
         <v>42168</v>
       </c>
       <c r="H69" s="55">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="I69" s="22">
         <v>0</v>
@@ -6685,7 +6588,7 @@
         <v>42170</v>
       </c>
       <c r="H71" s="55">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="I71" s="22">
         <v>1</v>
@@ -6710,7 +6613,7 @@
         <v>42170</v>
       </c>
       <c r="H72" s="55">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="I72" s="22">
         <v>0</v>
@@ -6733,7 +6636,7 @@
         <v>42170</v>
       </c>
       <c r="H73" s="55">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="I73" s="22">
         <v>0</v>
@@ -6756,7 +6659,7 @@
         <v>42170</v>
       </c>
       <c r="H74" s="55">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="I74" s="22">
         <v>1</v>
@@ -6944,7 +6847,7 @@
         <v>42178</v>
       </c>
       <c r="H82" s="55">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="I82" s="22">
         <v>2</v>
@@ -6994,7 +6897,7 @@
         <v>42178</v>
       </c>
       <c r="H84" s="55">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="I84" s="22">
         <v>3</v>
@@ -7042,14 +6945,14 @@
         <v>42175</v>
       </c>
       <c r="H86" s="55">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="I86" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="D87" s="103" t="s">
+      <c r="D87" s="75" t="s">
         <v>299</v>
       </c>
       <c r="E87">
@@ -7099,49 +7002,49 @@
       </c>
     </row>
     <row r="3" spans="3:25">
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="92" t="s">
+      <c r="G3" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="89" t="s">
+      <c r="I3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="101" t="s">
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="85" t="s">
         <v>67</v>
       </c>
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="3:25">
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
       <c r="J4" s="37" t="s">
         <v>105</v>
       </c>
@@ -7163,7 +7066,7 @@
       <c r="P4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="102"/>
+      <c r="Q4" s="86"/>
       <c r="R4" s="12"/>
       <c r="S4" s="47" t="s">
         <v>96</v>
@@ -7263,14 +7166,14 @@
       </c>
     </row>
     <row r="6" spans="3:25">
-      <c r="C6" s="76">
+      <c r="C6" s="79">
         <v>42134</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
       <c r="I6" s="11" t="s">
         <v>19</v>
       </c>
@@ -7409,12 +7312,12 @@
       </c>
     </row>
     <row r="8" spans="3:25">
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
       <c r="I8" s="11" t="s">
         <v>19</v>
       </c>
@@ -7478,16 +7381,16 @@
       </c>
     </row>
     <row r="9" spans="3:25">
-      <c r="C9" s="86">
+      <c r="C9" s="91">
         <v>42136.75</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="91">
         <v>42136.916666666664</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="94" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -7553,10 +7456,10 @@
       </c>
     </row>
     <row r="10" spans="3:25">
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
@@ -7620,10 +7523,10 @@
       </c>
     </row>
     <row r="11" spans="3:25">
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="5" t="s">
         <v>23</v>
       </c>
@@ -7687,10 +7590,10 @@
       </c>
     </row>
     <row r="12" spans="3:25">
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="5" t="s">
         <v>23</v>
       </c>
@@ -7754,10 +7657,10 @@
       </c>
     </row>
     <row r="13" spans="3:25">
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
@@ -7821,10 +7724,10 @@
       </c>
     </row>
     <row r="14" spans="3:25">
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="5" t="s">
         <v>23</v>
       </c>
@@ -7888,10 +7791,10 @@
       </c>
     </row>
     <row r="15" spans="3:25">
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
@@ -7955,10 +7858,10 @@
       </c>
     </row>
     <row r="16" spans="3:25">
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="5" t="s">
         <v>23</v>
       </c>
@@ -8022,14 +7925,14 @@
       </c>
     </row>
     <row r="17" spans="3:25">
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="11" t="s">
         <v>19</v>
       </c>
@@ -8170,12 +8073,12 @@
       </c>
     </row>
     <row r="19" spans="3:25">
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="11" t="s">
         <v>19</v>
       </c>
@@ -8239,16 +8142,16 @@
       </c>
     </row>
     <row r="20" spans="3:25">
-      <c r="C20" s="86">
+      <c r="C20" s="91">
         <v>42138.75</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="91">
         <v>42138.833333333336</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="94" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -8314,10 +8217,10 @@
       </c>
     </row>
     <row r="21" spans="3:25">
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="7" t="s">
         <v>23</v>
       </c>
@@ -8381,10 +8284,10 @@
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="7" t="s">
         <v>23</v>
       </c>
@@ -8448,10 +8351,10 @@
       </c>
     </row>
     <row r="23" spans="3:25">
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="5" t="s">
         <v>23</v>
       </c>
@@ -8515,12 +8418,12 @@
       </c>
     </row>
     <row r="24" spans="3:25">
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="11" t="s">
         <v>19</v>
       </c>
@@ -8661,12 +8564,12 @@
       </c>
     </row>
     <row r="26" spans="3:25">
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="11" t="s">
         <v>19</v>
       </c>
@@ -8730,16 +8633,16 @@
       </c>
     </row>
     <row r="27" spans="3:25">
-      <c r="C27" s="86">
+      <c r="C27" s="91">
         <v>42144.708333333336</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="91">
         <v>42144.791666666664</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="94" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="16" t="s">
@@ -8773,7 +8676,7 @@
         <f t="shared" ref="P27:P30" si="26">SUM(J27:O27)</f>
         <v>3</v>
       </c>
-      <c r="Q27" s="96" t="s">
+      <c r="Q27" s="80" t="s">
         <v>70</v>
       </c>
       <c r="R27" s="12"/>
@@ -8807,10 +8710,10 @@
       </c>
     </row>
     <row r="28" spans="3:25">
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
       <c r="G28" s="16" t="s">
         <v>23</v>
       </c>
@@ -8842,7 +8745,7 @@
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="Q28" s="97"/>
+      <c r="Q28" s="81"/>
       <c r="R28" s="12"/>
       <c r="S28" s="22">
         <f t="shared" si="15"/>
@@ -8874,10 +8777,10 @@
       </c>
     </row>
     <row r="29" spans="3:25">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
@@ -8909,7 +8812,7 @@
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="Q29" s="97"/>
+      <c r="Q29" s="81"/>
       <c r="R29" s="12"/>
       <c r="S29" s="22">
         <f t="shared" si="15"/>
@@ -8941,10 +8844,10 @@
       </c>
     </row>
     <row r="30" spans="3:25">
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
       <c r="G30" s="16" t="s">
         <v>23</v>
       </c>
@@ -8976,7 +8879,7 @@
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="Q30" s="98"/>
+      <c r="Q30" s="82"/>
       <c r="R30" s="12"/>
       <c r="S30" s="22">
         <f t="shared" si="15"/>
@@ -9008,12 +8911,12 @@
       </c>
     </row>
     <row r="31" spans="3:25">
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
       <c r="I31" s="11" t="s">
         <v>19</v>
       </c>
@@ -9152,12 +9055,12 @@
       </c>
     </row>
     <row r="33" spans="3:25">
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
       <c r="I33" s="11" t="s">
         <v>19</v>
       </c>
@@ -9227,10 +9130,10 @@
       <c r="D34" s="18">
         <v>42149.729166666664</v>
       </c>
-      <c r="E34" s="77" t="s">
+      <c r="E34" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="77" t="s">
+      <c r="F34" s="94" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="8" t="s">
@@ -9304,8 +9207,8 @@
       <c r="D35" s="18">
         <v>42149.958333333336</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
       <c r="G35" s="8" t="s">
         <v>60</v>
       </c>
@@ -9337,7 +9240,7 @@
         <f t="shared" si="28"/>
         <v>18</v>
       </c>
-      <c r="Q35" s="99" t="s">
+      <c r="Q35" s="83" t="s">
         <v>68</v>
       </c>
       <c r="R35" s="12"/>
@@ -9377,8 +9280,8 @@
       <c r="D36" s="19">
         <v>42149.5</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
       <c r="G36" s="8" t="s">
         <v>60</v>
       </c>
@@ -9410,7 +9313,7 @@
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="Q36" s="100"/>
+      <c r="Q36" s="84"/>
       <c r="R36" s="12"/>
       <c r="S36" s="22">
         <f t="shared" si="15"/>
@@ -9442,12 +9345,12 @@
       </c>
     </row>
     <row r="37" spans="3:25">
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
       <c r="I37" s="11" t="s">
         <v>19</v>
       </c>
@@ -9592,12 +9495,12 @@
       </c>
     </row>
     <row r="39" spans="3:25">
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
       <c r="I39" s="11" t="s">
         <v>19</v>
       </c>
@@ -9740,12 +9643,12 @@
       </c>
     </row>
     <row r="41" spans="3:25">
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
       <c r="I41" s="11" t="s">
         <v>19</v>
       </c>
@@ -9963,12 +9866,12 @@
       </c>
     </row>
     <row r="44" spans="3:25">
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
       <c r="I44" s="11" t="s">
         <v>19</v>
       </c>
@@ -10494,10 +10397,10 @@
       </c>
     </row>
     <row r="51" spans="3:25" s="46" customFormat="1">
-      <c r="C51" s="80">
+      <c r="C51" s="100">
         <v>42155.854166666664</v>
       </c>
-      <c r="D51" s="80">
+      <c r="D51" s="100">
         <v>42155.9375</v>
       </c>
       <c r="E51" s="39" t="s">
@@ -10506,10 +10409,10 @@
       <c r="F51" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G51" s="83" t="s">
+      <c r="G51" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="83" t="s">
+      <c r="H51" s="103" t="s">
         <v>84</v>
       </c>
       <c r="I51" s="42" t="s">
@@ -10569,16 +10472,16 @@
       </c>
     </row>
     <row r="52" spans="3:25" s="46" customFormat="1">
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
       <c r="I52" s="42" t="s">
         <v>113</v>
       </c>
@@ -10636,16 +10539,16 @@
       </c>
     </row>
     <row r="53" spans="3:25" s="46" customFormat="1">
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F53" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
       <c r="I53" s="42" t="s">
         <v>114</v>
       </c>
@@ -10703,16 +10606,16 @@
       </c>
     </row>
     <row r="54" spans="3:25" s="46" customFormat="1">
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
       <c r="E54" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
       <c r="I54" s="42" t="s">
         <v>115</v>
       </c>
@@ -10770,12 +10673,12 @@
       </c>
     </row>
     <row r="55" spans="3:25">
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
       <c r="I55" s="11" t="s">
         <v>19</v>
       </c>
@@ -10993,12 +10896,12 @@
       </c>
     </row>
     <row r="58" spans="3:25">
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
       <c r="I58" s="11" t="s">
         <v>19</v>
       </c>
@@ -11139,12 +11042,12 @@
       </c>
     </row>
     <row r="60" spans="3:25">
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
       <c r="I60" s="11" t="s">
         <v>19</v>
       </c>
@@ -11289,12 +11192,12 @@
       </c>
     </row>
     <row r="62" spans="3:25">
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
       <c r="I62" s="11" t="s">
         <v>19</v>
       </c>
@@ -11435,12 +11338,12 @@
       </c>
     </row>
     <row r="64" spans="3:25">
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
       <c r="I64" s="11" t="s">
         <v>19</v>
       </c>
@@ -11956,12 +11859,12 @@
       </c>
     </row>
     <row r="71" spans="3:25">
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
       <c r="I71" s="11" t="s">
         <v>19</v>
       </c>
@@ -12179,12 +12082,12 @@
       </c>
     </row>
     <row r="74" spans="3:25">
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
       <c r="I74" s="11" t="s">
         <v>19</v>
       </c>
@@ -12219,31 +12122,31 @@
       <c r="Q74" s="27"/>
       <c r="R74" s="12"/>
       <c r="S74" s="22">
-        <f t="shared" ref="S74:S120" si="62">IF($I74="total",J74,0)</f>
+        <f t="shared" ref="S74:S109" si="62">IF($I74="total",J74,0)</f>
         <v>3</v>
       </c>
       <c r="T74" s="22">
-        <f t="shared" ref="T74:T120" si="63">IF($I74="total",K74,0)</f>
+        <f t="shared" ref="T74:T109" si="63">IF($I74="total",K74,0)</f>
         <v>3</v>
       </c>
       <c r="U74" s="22">
-        <f t="shared" ref="U74:U120" si="64">IF($I74="total",L74,0)</f>
+        <f t="shared" ref="U74:U109" si="64">IF($I74="total",L74,0)</f>
         <v>3</v>
       </c>
       <c r="V74" s="22">
-        <f t="shared" ref="V74:V120" si="65">IF($I74="total",M74,0)</f>
+        <f t="shared" ref="V74:V109" si="65">IF($I74="total",M74,0)</f>
         <v>3</v>
       </c>
       <c r="W74" s="22">
-        <f t="shared" ref="W74:W120" si="66">IF($I74="total",N74,0)</f>
+        <f t="shared" ref="W74:W109" si="66">IF($I74="total",N74,0)</f>
         <v>3</v>
       </c>
       <c r="X74" s="22">
-        <f t="shared" ref="X74:X120" si="67">IF($I74="total",O74,0)</f>
+        <f t="shared" ref="X74:X109" si="67">IF($I74="total",O74,0)</f>
         <v>3</v>
       </c>
       <c r="Y74" s="22">
-        <f t="shared" ref="Y74:Y120" si="68">IF($I74="total",P74,0)</f>
+        <f t="shared" ref="Y74:Y109" si="68">IF($I74="total",P74,0)</f>
         <v>18</v>
       </c>
     </row>
@@ -12710,12 +12613,12 @@
       </c>
     </row>
     <row r="81" spans="3:25">
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
       <c r="I81" s="11" t="s">
         <v>19</v>
       </c>
@@ -12931,12 +12834,12 @@
       </c>
     </row>
     <row r="84" spans="3:25">
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
       <c r="I84" s="11" t="s">
         <v>19</v>
       </c>
@@ -13081,12 +12984,12 @@
       </c>
     </row>
     <row r="86" spans="3:25">
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="76"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="79"/>
       <c r="I86" s="11" t="s">
         <v>19</v>
       </c>
@@ -13227,12 +13130,12 @@
       </c>
     </row>
     <row r="88" spans="3:25">
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
       <c r="I88" s="11" t="s">
         <v>19</v>
       </c>
@@ -13758,12 +13661,12 @@
       </c>
     </row>
     <row r="95" spans="3:25">
-      <c r="C95" s="76"/>
-      <c r="D95" s="76"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="76"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="79"/>
+      <c r="H95" s="79"/>
       <c r="I95" s="11" t="s">
         <v>19</v>
       </c>
@@ -14289,12 +14192,12 @@
       </c>
     </row>
     <row r="102" spans="3:25">
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
       <c r="I102" s="11" t="s">
         <v>19</v>
       </c>
@@ -14820,12 +14723,12 @@
       </c>
     </row>
     <row r="109" spans="3:25">
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
       <c r="I109" s="11" t="s">
         <v>19</v>
       </c>
@@ -14966,12 +14869,12 @@
       </c>
     </row>
     <row r="111" spans="3:25">
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="79"/>
       <c r="I111" s="11" t="s">
         <v>19</v>
       </c>
@@ -15116,12 +15019,12 @@
       </c>
     </row>
     <row r="113" spans="3:25">
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="79"/>
+      <c r="H113" s="79"/>
       <c r="I113" s="11" t="s">
         <v>19</v>
       </c>
@@ -15339,12 +15242,12 @@
       </c>
     </row>
     <row r="116" spans="3:25">
-      <c r="C116" s="76"/>
-      <c r="D116" s="76"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="76"/>
-      <c r="H116" s="76"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="79"/>
       <c r="I116" s="11" t="s">
         <v>19</v>
       </c>
@@ -15945,12 +15848,12 @@
       </c>
     </row>
     <row r="124" spans="3:25">
-      <c r="C124" s="76"/>
-      <c r="D124" s="76"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="76"/>
-      <c r="H124" s="76"/>
+      <c r="C124" s="79"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="79"/>
       <c r="I124" s="11" t="s">
         <v>19</v>
       </c>
@@ -16168,12 +16071,12 @@
       </c>
     </row>
     <row r="127" spans="3:25">
-      <c r="C127" s="76"/>
-      <c r="D127" s="76"/>
-      <c r="E127" s="76"/>
-      <c r="F127" s="76"/>
-      <c r="G127" s="76"/>
-      <c r="H127" s="76"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="79"/>
+      <c r="G127" s="79"/>
+      <c r="H127" s="79"/>
       <c r="I127" s="11" t="s">
         <v>19</v>
       </c>
@@ -16391,12 +16294,12 @@
       </c>
     </row>
     <row r="130" spans="3:25">
-      <c r="C130" s="76"/>
-      <c r="D130" s="76"/>
-      <c r="E130" s="76"/>
-      <c r="F130" s="76"/>
-      <c r="G130" s="76"/>
-      <c r="H130" s="76"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="79"/>
+      <c r="G130" s="79"/>
+      <c r="H130" s="79"/>
       <c r="I130" s="11" t="s">
         <v>19</v>
       </c>
@@ -16537,12 +16440,12 @@
       </c>
     </row>
     <row r="132" spans="3:25">
-      <c r="C132" s="76"/>
-      <c r="D132" s="76"/>
-      <c r="E132" s="76"/>
-      <c r="F132" s="76"/>
-      <c r="G132" s="76"/>
-      <c r="H132" s="76"/>
+      <c r="C132" s="79"/>
+      <c r="D132" s="79"/>
+      <c r="E132" s="79"/>
+      <c r="F132" s="79"/>
+      <c r="G132" s="79"/>
+      <c r="H132" s="79"/>
       <c r="I132" s="11" t="s">
         <v>19</v>
       </c>
@@ -16760,12 +16663,12 @@
       </c>
     </row>
     <row r="135" spans="3:25">
-      <c r="C135" s="76"/>
-      <c r="D135" s="76"/>
-      <c r="E135" s="76"/>
-      <c r="F135" s="76"/>
-      <c r="G135" s="76"/>
-      <c r="H135" s="76"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="79"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="79"/>
+      <c r="H135" s="79"/>
       <c r="I135" s="11" t="s">
         <v>19</v>
       </c>
@@ -17058,41 +16961,41 @@
       </c>
     </row>
     <row r="139" spans="3:25">
-      <c r="C139" s="76"/>
-      <c r="D139" s="76"/>
-      <c r="E139" s="76"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="76"/>
-      <c r="H139" s="76"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="79"/>
+      <c r="G139" s="79"/>
+      <c r="H139" s="79"/>
       <c r="I139" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J139" s="32">
-        <f>SUM(J136:J138)</f>
+        <f t="shared" ref="J139:O139" si="123">SUM(J136:J138)</f>
         <v>7</v>
       </c>
       <c r="K139" s="32">
-        <f>SUM(K136:K138)</f>
+        <f t="shared" si="123"/>
         <v>11</v>
       </c>
       <c r="L139" s="32">
-        <f>SUM(L136:L138)</f>
+        <f t="shared" si="123"/>
         <v>11</v>
       </c>
       <c r="M139" s="32">
-        <f>SUM(M136:M138)</f>
+        <f t="shared" si="123"/>
         <v>11</v>
       </c>
       <c r="N139" s="32">
-        <f>SUM(N136:N138)</f>
+        <f t="shared" si="123"/>
         <v>11</v>
       </c>
       <c r="O139" s="32">
-        <f>SUM(O136:O138)</f>
+        <f t="shared" si="123"/>
         <v>11</v>
       </c>
       <c r="P139" s="32">
-        <f t="shared" ref="P139" si="123">SUM(J139:O139)</f>
+        <f t="shared" ref="P139" si="124">SUM(J139:O139)</f>
         <v>62</v>
       </c>
       <c r="Q139" s="27"/>
@@ -17433,41 +17336,41 @@
       </c>
     </row>
     <row r="144" spans="3:25">
-      <c r="C144" s="76"/>
-      <c r="D144" s="76"/>
-      <c r="E144" s="76"/>
-      <c r="F144" s="76"/>
-      <c r="G144" s="76"/>
-      <c r="H144" s="76"/>
+      <c r="C144" s="79"/>
+      <c r="D144" s="79"/>
+      <c r="E144" s="79"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
       <c r="I144" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J144" s="32">
-        <f>SUM(J140:J143)</f>
+        <f t="shared" ref="J144:O144" si="125">SUM(J140:J143)</f>
         <v>9</v>
       </c>
       <c r="K144" s="32">
-        <f>SUM(K140:K143)</f>
+        <f t="shared" si="125"/>
         <v>9</v>
       </c>
       <c r="L144" s="32">
-        <f>SUM(L140:L143)</f>
+        <f t="shared" si="125"/>
         <v>9</v>
       </c>
       <c r="M144" s="32">
-        <f>SUM(M140:M143)</f>
+        <f t="shared" si="125"/>
         <v>9</v>
       </c>
       <c r="N144" s="32">
-        <f>SUM(N140:N143)</f>
+        <f t="shared" si="125"/>
         <v>9</v>
       </c>
       <c r="O144" s="32">
-        <f>SUM(O140:O143)</f>
+        <f t="shared" si="125"/>
         <v>9</v>
       </c>
       <c r="P144" s="32">
-        <f t="shared" ref="P144" si="124">SUM(J144:O144)</f>
+        <f t="shared" ref="P144" si="126">SUM(J144:O144)</f>
         <v>54</v>
       </c>
       <c r="Q144" s="27"/>
@@ -17696,7 +17599,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="31">
-        <f t="shared" ref="P147:P149" si="125">SUM(J147:O147)</f>
+        <f t="shared" ref="P147:P149" si="127">SUM(J147:O147)</f>
         <v>24</v>
       </c>
       <c r="Q147" s="26" t="s">
@@ -17773,7 +17676,7 @@
         <v>6</v>
       </c>
       <c r="P148" s="31">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>12</v>
       </c>
       <c r="Q148" s="26"/>
@@ -17808,41 +17711,41 @@
       </c>
     </row>
     <row r="149" spans="3:25">
-      <c r="C149" s="76"/>
-      <c r="D149" s="76"/>
-      <c r="E149" s="76"/>
-      <c r="F149" s="76"/>
-      <c r="G149" s="76"/>
-      <c r="H149" s="76"/>
+      <c r="C149" s="79"/>
+      <c r="D149" s="79"/>
+      <c r="E149" s="79"/>
+      <c r="F149" s="79"/>
+      <c r="G149" s="79"/>
+      <c r="H149" s="79"/>
       <c r="I149" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J149" s="32">
-        <f>SUM(J145:J148)</f>
+        <f t="shared" ref="J149:O149" si="128">SUM(J145:J148)</f>
         <v>10</v>
       </c>
       <c r="K149" s="32">
-        <f>SUM(K145:K148)</f>
+        <f t="shared" si="128"/>
         <v>10</v>
       </c>
       <c r="L149" s="32">
-        <f>SUM(L145:L148)</f>
+        <f t="shared" si="128"/>
         <v>10</v>
       </c>
       <c r="M149" s="32">
-        <f>SUM(M145:M148)</f>
+        <f t="shared" si="128"/>
         <v>10</v>
       </c>
       <c r="N149" s="32">
-        <f>SUM(N145:N148)</f>
+        <f t="shared" si="128"/>
         <v>10</v>
       </c>
       <c r="O149" s="32">
-        <f>SUM(O145:O148)</f>
+        <f t="shared" si="128"/>
         <v>10</v>
       </c>
       <c r="P149" s="32">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>60</v>
       </c>
       <c r="Q149" s="27"/>
@@ -17887,31 +17790,31 @@
         <v>63</v>
       </c>
       <c r="J150" s="33">
-        <f>SUM(S5:S149)</f>
+        <f t="shared" ref="J150:P150" si="129">SUM(S5:S149)</f>
         <v>163.66666666666669</v>
       </c>
       <c r="K150" s="33">
-        <f>SUM(T5:T149)</f>
+        <f t="shared" si="129"/>
         <v>159.66666666666669</v>
       </c>
       <c r="L150" s="33">
-        <f>SUM(U5:U149)</f>
+        <f t="shared" si="129"/>
         <v>159.66666666666669</v>
       </c>
       <c r="M150" s="33">
-        <f>SUM(V5:V149)</f>
+        <f t="shared" si="129"/>
         <v>166.66666666666669</v>
       </c>
       <c r="N150" s="33">
-        <f>SUM(W5:W149)</f>
+        <f t="shared" si="129"/>
         <v>159.66666666666669</v>
       </c>
       <c r="O150" s="33">
-        <f>SUM(X5:X149)</f>
+        <f t="shared" si="129"/>
         <v>159.66666666666669</v>
       </c>
       <c r="P150" s="33">
-        <f>SUM(Y5:Y149)</f>
+        <f t="shared" si="129"/>
         <v>969</v>
       </c>
       <c r="Q150" s="28"/>
@@ -18079,23 +17982,39 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="C81:H81"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="Q27:Q30"/>
@@ -18112,39 +18031,23 @@
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C135:H135"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
